--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishna\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Subscription\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8861A5-E98F-419D-BA4F-700FB4F87FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802FDA4-F9BD-462E-BF4D-28126314EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{5B2F1A05-902E-44E1-BBBE-A58D9230A467}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5B2F1A05-902E-44E1-BBBE-A58D9230A467}"/>
   </bookViews>
   <sheets>
     <sheet name="04oct" sheetId="5" r:id="rId1"/>
@@ -19,19 +19,28 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04oct'!$B$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04oct'!$B$2:$H$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="383">
   <si>
     <t xml:space="preserve"> Task Description                         Status     </t>
   </si>
@@ -930,36 +939,12 @@
     <t>Displaying the selectd products in the body of page  along with Details and Images</t>
   </si>
   <si>
-    <t>UI /API</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adding to Wish List </t>
   </si>
   <si>
-    <t>UI/API</t>
-  </si>
-  <si>
-    <t>Adding selected products to wishlist and storing the wishlist items for respective user for displaying in the wishlist whenever he logins</t>
-  </si>
-  <si>
-    <t>Quantity Selectiin of Product</t>
-  </si>
-  <si>
-    <t>Selecting the quantity of each product , and sending the qty to the cart if added to cart</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add to Cart </t>
   </si>
   <si>
-    <t>adding selected items to  cart and storing in the cart for displaying for Re-logins for check out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI/ API </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displaying the rating sof each products (ratings have to be given by user) </t>
-  </si>
-  <si>
     <t>Displaying rating  or Likes</t>
   </si>
   <si>
@@ -990,9 +975,6 @@
     <t>Product DetailView</t>
   </si>
   <si>
-    <t>Displaying the image and details of Products(name, price, quantity)</t>
-  </si>
-  <si>
     <t>About Product</t>
   </si>
   <si>
@@ -1002,9 +984,6 @@
     <t>Similar Prodcuts Div</t>
   </si>
   <si>
-    <t>Displaying the similar products in the bottom of page of Selected product Detail page</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1050,9 +1029,6 @@
     <t>Getting current location of user and displaying in the location box</t>
   </si>
   <si>
-    <t xml:space="preserve">Designing the search bar </t>
-  </si>
-  <si>
     <t>Adding Functionality to the Search bar and showing the items respective to the search</t>
   </si>
   <si>
@@ -1098,9 +1074,6 @@
     <t xml:space="preserve">Designing  the My-Subscriptions Page  </t>
   </si>
   <si>
-    <t>Ramakrishna</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adding Fucntionality to the My Subscriptions Button , redirecting to the Mysubscriptions Page  with showing the Subscriptions of the user  </t>
   </si>
   <si>
@@ -1122,9 +1095,6 @@
     <t xml:space="preserve">Designing the Nav-bar component </t>
   </si>
   <si>
-    <t>Bhaskar &amp; Ramakrishna</t>
-  </si>
-  <si>
     <t>Siva</t>
   </si>
   <si>
@@ -1164,10 +1134,139 @@
     <t xml:space="preserve">Getting the Brands of the  Products  Details and Displaying </t>
   </si>
   <si>
+    <t>Brands- Display-Functionality</t>
+  </si>
+  <si>
+    <t>When clicking the selected brand , thr products of respective brand have to show in the products display page</t>
+  </si>
+  <si>
+    <t>When clicking the selected product , the  respective product detail view has to display in the product detail view page</t>
+  </si>
+  <si>
+    <t>When clicking the category , the  respective categories products   have to display in the products view page</t>
+  </si>
+  <si>
+    <t>Products Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing the products page along with left side filter bar </t>
+  </si>
+  <si>
+    <t>Getting the  total Products list from API  to display in the products page along with filter option</t>
+  </si>
+  <si>
+    <t>after clicking  the wishlist button , the product have to add to the wishlist of respective user</t>
+  </si>
+  <si>
+    <t>Wish List</t>
+  </si>
+  <si>
+    <t>Designing the Wish List page to the items in the wishlist of user</t>
+  </si>
+  <si>
+    <t>Adding the selected product to the wishlist table of respective user</t>
+  </si>
+  <si>
+    <t>Quantity Selection of Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the quantity of each product , and  price of particular quantity should be displayed in the price sending the qty to the cart if added to cart  or Subscription Page </t>
+  </si>
+  <si>
+    <t>Fucntionality of the button  to add the item to the cart</t>
+  </si>
+  <si>
+    <t>Adding the selected item to cart and storing in the  DB of the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displaying the rating of the product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting the rating of the particualr products </t>
+  </si>
+  <si>
+    <t>Designing the product detail view page for Displaying the image and details of Products(name, price, quantity)</t>
+  </si>
+  <si>
+    <t>Designing the similar products row and ading scrolling functionlity for the row (products)</t>
+  </si>
+  <si>
+    <t>getting the similar products by doing filter and displaying it in the similar products row</t>
+  </si>
+  <si>
+    <t>Cart  Fucntionality</t>
+  </si>
+  <si>
+    <t>adding item to the  cart if cart button is clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding item to the  cart and redirecting to the subcription page for the subscriptions selection of particular  product along with the selected wuantity and Price </t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>RamaKrishna</t>
+  </si>
+  <si>
+    <t>intgerating the user information to the profile page for disaplying the user data</t>
+  </si>
+  <si>
+    <t>Profile Page - Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile Page -Editing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giving editing option for the details of the user </t>
+  </si>
+  <si>
+    <t>Giving validations for the inputs given in the Inpit fields of profile editing page</t>
+  </si>
+  <si>
+    <t>Saving the edited data of user data into the Database</t>
+  </si>
+  <si>
+    <t>Designing the subscription page for selecting the subscriptions of the respective product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing the Home Page </t>
+  </si>
+  <si>
     <t>PopUp</t>
   </si>
   <si>
-    <t xml:space="preserve">Subscription popup </t>
+    <t>Displaying the Respective Product with Image with selected quantity along with Price  and Types of Subscription i.e; (Single day, Weekly, Monthly) with their respective prices after clicking Subscription button provided on product display page</t>
+  </si>
+  <si>
+    <t>Subscription  selection</t>
+  </si>
+  <si>
+    <t>Displaying selected product with price, Image and subscription amount form backend  code</t>
+  </si>
+  <si>
+    <t>Qyuantity Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing the quantity of the product for the user requirement and the respective calculation for the Order Quantity and subscription amount Have to changes </t>
+  </si>
+  <si>
+    <t>Going Back / Cancelling the the popup</t>
+  </si>
+  <si>
+    <t>Incase the user want's to go back Exit button is provided in popup</t>
+  </si>
+  <si>
+    <t>Selected product Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displaying the details of the Product such as Price, Image and their Subscription Amount of weekly, monthly, yearly </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Location Page</t>
   </si>
   <si>
     <t>After selecting type of subscription for the product the user have to enter the delivery address, By filling the necessary fields such as house no ,  buliding, Landmark an the type of address (Home, work, other)</t>
@@ -1179,80 +1278,50 @@
     <t>The Delivery Address Mentioned by the use has to store in the database for the purspose of giving it to the delivary man</t>
   </si>
   <si>
-    <t>Displaying the Respective Product with Image with selected quantity along with Price  and Types of Subscription i.e; (Single day, Weekly, Monthly) with their respective prices after clicking Subscription button provided on product display page</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t xml:space="preserve">Precise location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">precise location of the user getting from embedded map on the location page </t>
+  </si>
+  <si>
+    <t>Validation and storing the data</t>
+  </si>
+  <si>
+    <t>validating the user Inputs and storing the Address data in database of address table</t>
+  </si>
+  <si>
+    <t>Payment page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paymnet page for the user for which type of transaction he /her wants to make </t>
   </si>
   <si>
     <t xml:space="preserve">Payment </t>
   </si>
   <si>
-    <t xml:space="preserve">precise location of the user getting from embedded map on the location page </t>
-  </si>
-  <si>
-    <t>Subscription  selection</t>
-  </si>
-  <si>
-    <t>Going Back / Cancelling the the popup</t>
-  </si>
-  <si>
-    <t>Incase the user want's to go back Exit button is provided in popup</t>
-  </si>
-  <si>
-    <t>Qyuantity Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changing the quantity of the product for the user requirement and the respective calculation for the Order Quantity and subscription amount Have to changes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precise location </t>
-  </si>
-  <si>
-    <t>Selected product Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displaying the details of the Product such as Price, Image and their Subscription Amount of weekly, monthly, yearly </t>
-  </si>
-  <si>
-    <t>Validation and storing the data</t>
-  </si>
-  <si>
-    <t>validating the user Inputs and storing the Address data in database of address table</t>
+    <t>Razorpay Payment details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Razorpay Test Account and creating KeyId </t>
   </si>
   <si>
     <t>Razorpay</t>
   </si>
   <si>
-    <t xml:space="preserve">Creating Razorpay Test Account and creating KeyId </t>
-  </si>
-  <si>
     <t>Razorpay Payment Gateway for the calling the razorpay payment api from the backend using asp.net web api</t>
   </si>
   <si>
-    <t>Location Page</t>
-  </si>
-  <si>
     <t>Integrating the razorpay react code provided on docs of react raorpay with our fields</t>
   </si>
   <si>
-    <t>Displaying selected product with price, Image and subscription amount form backend  code</t>
-  </si>
-  <si>
-    <t>Razorpay Payment details</t>
-  </si>
-  <si>
-    <t>Payment page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paymnet page for the user for which type of transaction he /her wants to make </t>
+    <t xml:space="preserve"> Pop Up for Subscription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,22 +1372,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1341,7 +1395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,8 +1432,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CE975"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1811,12 +1883,51 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1824,7 +1935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1907,316 +2018,452 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2230,16 +2477,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2248,6 +2485,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9CE975"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2556,1114 +2798,1495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}">
-  <dimension ref="B1:L66"/>
+  <dimension ref="B1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" style="39" customWidth="1"/>
-    <col min="6" max="7" width="37.21875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" style="35" customWidth="1"/>
+    <col min="6" max="7" width="37.21875" style="28" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38"/>
-      <c r="C2" s="33" t="s">
+    <row r="1" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="158"/>
+      <c r="C2" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="160" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="116" t="s">
+      <c r="G2" s="117" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="173" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="109" t="s">
         <v>283</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>273</v>
       </c>
       <c r="H3" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="117"/>
-      <c r="C4" s="45" t="s">
+    <row r="4" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="174"/>
+      <c r="C4" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="109" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="117"/>
-      <c r="C5" s="45" t="s">
+      <c r="G4" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="174"/>
+      <c r="C5" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="109" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="117"/>
-      <c r="C6" s="45" t="s">
+      <c r="G5" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="174"/>
+      <c r="C6" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="109" t="s">
         <v>283</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>273</v>
       </c>
       <c r="H6" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="117"/>
-      <c r="C7" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="46" t="s">
+    <row r="7" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="174"/>
+      <c r="C7" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="117"/>
-      <c r="C8" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="117"/>
-      <c r="C9" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="46" t="s">
+      <c r="E7" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="174"/>
+      <c r="C8" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="174"/>
+      <c r="C9" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="117"/>
-      <c r="C10" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="46" t="s">
+      <c r="E9" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="174"/>
+      <c r="C10" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="48" t="s">
+      <c r="E10" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="109" t="s">
         <v>283</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>273</v>
       </c>
       <c r="H10" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="117"/>
-      <c r="C11" s="45" t="s">
+    <row r="11" spans="2:8" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="174"/>
+      <c r="C11" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G11" s="48" t="s">
+      <c r="F11" s="109" t="s">
         <v>283</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>273</v>
       </c>
       <c r="H11" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="117"/>
-      <c r="C12" s="45" t="s">
+    <row r="12" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="174"/>
+      <c r="C12" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="F12" s="44" t="s">
+      <c r="D12" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="2:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="117"/>
-      <c r="C13" s="45" t="s">
+      <c r="F12" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="174"/>
+      <c r="C13" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="2:12" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="117"/>
-      <c r="C14" s="45" t="s">
+      <c r="F13" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="2:8" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="174"/>
+      <c r="C14" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="109" t="s">
         <v>283</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>273</v>
       </c>
       <c r="H14" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="118"/>
-      <c r="C15" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="50" t="s">
+    <row r="15" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="175"/>
+      <c r="C15" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G15" s="52" t="s">
+      <c r="E15" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="109" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="119"/>
-      <c r="C16" s="53" t="s">
+      <c r="G15" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="176"/>
+      <c r="C16" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="L16">
-        <f>250/8</f>
-        <v>31.25</v>
+      <c r="F16" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>284</v>
+      <c r="E17" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>274</v>
       </c>
       <c r="H17" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="121"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="177"/>
+      <c r="C18" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>284</v>
+      <c r="F18" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="122"/>
-      <c r="C19" s="61" t="s">
+      <c r="B19" s="165"/>
+      <c r="C19" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G19" s="64" t="s">
+      <c r="D19" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" s="109" t="s">
         <v>283</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>273</v>
       </c>
       <c r="H19" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="122"/>
-      <c r="C20" s="61" t="s">
+    <row r="20" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="165"/>
+      <c r="C20" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="165"/>
+      <c r="C21" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="64" t="s">
+      <c r="E21" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="165"/>
+      <c r="C22" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="165"/>
+      <c r="C23" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="122"/>
-      <c r="C21" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="62" t="s">
+      <c r="G23" s="59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="165"/>
+      <c r="C24" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G21" s="64" t="s">
+      <c r="F24" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="165"/>
+      <c r="C25" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="165"/>
+      <c r="C26" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="165"/>
+      <c r="C27" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="F27" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="166"/>
+      <c r="C28" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="62" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="122"/>
-      <c r="C22" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="62" t="s">
+      <c r="F28" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="166"/>
+      <c r="C29" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="F29" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="166"/>
+      <c r="C30" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="166"/>
+      <c r="C31" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="166"/>
+      <c r="C32" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="178"/>
+      <c r="C33" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="64" t="s">
+      <c r="E33" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F33" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="170" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F34" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="H34" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="179"/>
+      <c r="C35" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="171"/>
+      <c r="C36" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="171"/>
+      <c r="C37" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="171"/>
+      <c r="C38" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="H38" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="171"/>
+      <c r="C39" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="F39" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="171"/>
+      <c r="C40" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F40" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="171"/>
+      <c r="C41" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="172"/>
+      <c r="C42" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F42" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" s="95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="172"/>
+      <c r="C43" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="F43" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" s="95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="180"/>
+      <c r="C44" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="180"/>
+      <c r="C45" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G45" s="95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="172"/>
+      <c r="C46" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="97" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="122"/>
-      <c r="C23" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23" s="62" t="s">
+      <c r="F46" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" s="95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="181" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="B48" s="182"/>
+      <c r="C48" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="122"/>
-      <c r="C24" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="122"/>
-      <c r="C25" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="D25" s="62" t="s">
+      <c r="E48" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" s="83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="182"/>
+      <c r="C49" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="182"/>
+      <c r="C50" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="122"/>
-      <c r="C26" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="D26" s="62" t="s">
+      <c r="E50" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="F50" s="115" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" s="83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="182"/>
+      <c r="C51" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="182"/>
+      <c r="C52" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="122"/>
-      <c r="C27" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="122"/>
-      <c r="C28" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="D28" s="62" t="s">
+      <c r="E52" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="G52" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="182"/>
+      <c r="C53" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="182"/>
+      <c r="C54" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G28" s="64" t="s">
+      <c r="E54" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" s="115" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="182"/>
+      <c r="C55" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F55" s="115" t="s">
+        <v>346</v>
+      </c>
+      <c r="G55" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="182"/>
+      <c r="C56" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="F56" s="112" t="s">
         <v>283</v>
       </c>
-      <c r="H28" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="123"/>
-      <c r="C29" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="66" t="s">
+      <c r="G56" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="183"/>
+      <c r="C57" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="F57" s="108" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="183"/>
+      <c r="C58" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="107" t="s">
+        <v>337</v>
+      </c>
+      <c r="F58" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G58" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="184"/>
+      <c r="C59" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59" s="101" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="185" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="E29" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="124"/>
-      <c r="C30" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="69" t="s">
+      <c r="E60" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G60" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="185"/>
+      <c r="C61" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="F61" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G61" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="186"/>
+      <c r="C62" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="F62" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="187"/>
+      <c r="C63" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="F63" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="E30" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="113" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="73" t="s">
+      <c r="E64" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G64" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="171"/>
+      <c r="C65" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="114"/>
-      <c r="C32" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="D32" s="78" t="s">
+      <c r="E65" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G65" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="172"/>
+      <c r="C66" s="96" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>343</v>
+      </c>
+      <c r="F66" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="172"/>
+      <c r="C67" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="F67" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G67" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="172"/>
+      <c r="C68" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="E32" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="114"/>
-      <c r="C33" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E33" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G33" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="H33" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="114"/>
-      <c r="C34" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" s="78" t="s">
+      <c r="E68" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="172"/>
+      <c r="C69" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" s="122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="B70" s="161" t="s">
+        <v>355</v>
+      </c>
+      <c r="C70" s="131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G34" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="114"/>
-      <c r="C35" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>329</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" s="81" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="114"/>
-      <c r="C36" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" s="78" t="s">
+      <c r="E70" s="127" t="s">
+        <v>356</v>
+      </c>
+      <c r="F70" s="128"/>
+      <c r="G70" s="129"/>
+    </row>
+    <row r="71" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="162"/>
+      <c r="C71" s="132" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="124" t="s">
+        <v>358</v>
+      </c>
+      <c r="F71" s="125"/>
+      <c r="G71" s="130"/>
+    </row>
+    <row r="72" spans="2:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="162"/>
+      <c r="C72" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="D72" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="F72" s="125"/>
+      <c r="G72" s="130"/>
+    </row>
+    <row r="73" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="162"/>
+      <c r="C73" s="132" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" s="81" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="125"/>
-      <c r="C37" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="E37" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37" s="112" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="125"/>
-      <c r="C38" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" s="83" t="s">
+      <c r="E73" s="124" t="s">
+        <v>362</v>
+      </c>
+      <c r="F73" s="125"/>
+      <c r="G73" s="130"/>
+    </row>
+    <row r="74" spans="2:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="163"/>
+      <c r="C74" s="133" t="s">
+        <v>363</v>
+      </c>
+      <c r="D74" s="134" t="s">
+        <v>292</v>
+      </c>
+      <c r="E74" s="135" t="s">
+        <v>364</v>
+      </c>
+      <c r="F74" s="136"/>
+      <c r="G74" s="137"/>
+    </row>
+    <row r="75" spans="2:7" ht="117" x14ac:dyDescent="0.3">
+      <c r="B75" s="164" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="143" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" s="76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="125"/>
-      <c r="C39" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="86" t="s">
-        <v>255</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="E40" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="H40" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="127"/>
-      <c r="C41" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="93"/>
-    </row>
-    <row r="42" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="127"/>
-      <c r="C42" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="93"/>
-    </row>
-    <row r="43" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="127"/>
-      <c r="C43" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="94"/>
-    </row>
-    <row r="44" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="127"/>
-      <c r="C44" s="90" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="94"/>
-    </row>
-    <row r="45" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="96" t="s">
+      <c r="E75" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" s="140"/>
+      <c r="G75" s="141"/>
+    </row>
+    <row r="76" spans="2:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="B76" s="165"/>
+      <c r="C76" s="144" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="F76" s="138"/>
+      <c r="G76" s="142"/>
+    </row>
+    <row r="77" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="165"/>
+      <c r="C77" s="144" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="97" t="s">
+      <c r="E77" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="F77" s="138"/>
+      <c r="G77" s="142"/>
+    </row>
+    <row r="78" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="166"/>
+      <c r="C78" s="145" t="s">
+        <v>372</v>
+      </c>
+      <c r="D78" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="129"/>
-      <c r="C46" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="D46" s="100" t="s">
+      <c r="E78" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" s="146"/>
+      <c r="G78" s="147"/>
+    </row>
+    <row r="79" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="C79" s="148" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="E46" s="101" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="102"/>
-    </row>
-    <row r="47" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="130"/>
-      <c r="C47" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="106"/>
-    </row>
-    <row r="48" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="131"/>
-      <c r="C48" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="108" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="110"/>
-    </row>
-    <row r="49" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="113" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="114"/>
-      <c r="C50" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="D50" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="80"/>
-    </row>
-    <row r="51" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="115"/>
-      <c r="C51" s="82" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="85"/>
-    </row>
-    <row r="52" spans="2:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B52" s="138" t="s">
-        <v>335</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="F52" s="137"/>
-    </row>
-    <row r="53" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="139"/>
-      <c r="C53" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="E79" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="F79" s="149"/>
+      <c r="G79" s="150"/>
+    </row>
+    <row r="80" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="168"/>
+      <c r="C80" s="151" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="F53" s="137"/>
-    </row>
-    <row r="54" spans="2:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="139"/>
-      <c r="C54" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="E80" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="F80" s="152"/>
+      <c r="G80" s="153"/>
+    </row>
+    <row r="81" spans="2:7" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="B81" s="168"/>
+      <c r="C81" s="151" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="F54" s="137"/>
-    </row>
-    <row r="55" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="139"/>
-      <c r="C55" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="F55" s="137"/>
-    </row>
-    <row r="56" spans="2:8" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="B56" s="139"/>
-      <c r="C56" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="F56" s="137"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F57" s="137"/>
-    </row>
-    <row r="58" spans="2:8" ht="117" x14ac:dyDescent="0.3">
-      <c r="B58" s="136" t="s">
-        <v>341</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="B59" s="136"/>
-      <c r="C59" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="136"/>
-      <c r="C60" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="136"/>
-      <c r="C61" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="C63" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="136" t="s">
-        <v>342</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="B65" s="136"/>
-      <c r="C65" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="136"/>
-      <c r="C66" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>358</v>
-      </c>
+      <c r="E81" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="F81" s="154"/>
+      <c r="G81" s="155"/>
+    </row>
+    <row r="82" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="169"/>
+      <c r="C82" s="156" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="E82" s="93" t="s">
+        <v>381</v>
+      </c>
+      <c r="F82" s="157"/>
+      <c r="G82" s="120"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L2" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}"/>
+  <autoFilter ref="B2:H69" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}"/>
   <mergeCells count="9">
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B64:B69"/>
     <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B17:B33"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="B60:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3684,7 +4307,7 @@
     <col min="3" max="3" width="36.21875" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="63.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="30" customWidth="1"/>
+    <col min="6" max="6" width="36" style="28" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="20" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
@@ -3701,14 +4324,14 @@
         <v>204</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="188" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3720,15 +4343,15 @@
       <c r="E3" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>288</v>
+      <c r="F3" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H3" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="133"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="7" t="s">
         <v>213</v>
       </c>
@@ -3738,15 +4361,15 @@
       <c r="E4" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>288</v>
+      <c r="F4" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H4" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="133"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
@@ -3756,15 +4379,15 @@
       <c r="E5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>288</v>
+      <c r="F5" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H5" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="7" t="s">
         <v>228</v>
       </c>
@@ -3774,15 +4397,15 @@
       <c r="E6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>288</v>
+      <c r="F6" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H6" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="133"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="7" t="s">
         <v>118</v>
       </c>
@@ -3792,15 +4415,15 @@
       <c r="E7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>288</v>
+      <c r="F7" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="133"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="7" t="s">
         <v>119</v>
       </c>
@@ -3810,15 +4433,15 @@
       <c r="E8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>288</v>
+      <c r="F8" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H8" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="133"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="7" t="s">
         <v>120</v>
       </c>
@@ -3828,8 +4451,8 @@
       <c r="E9" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>288</v>
+      <c r="F9" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H9" s="20">
         <v>3</v>
@@ -3839,7 +4462,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="133"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="7" t="s">
         <v>121</v>
       </c>
@@ -3849,8 +4472,8 @@
       <c r="E10" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>288</v>
+      <c r="F10" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="L10">
         <f>250/8</f>
@@ -3858,7 +4481,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="7" t="s">
         <v>122</v>
       </c>
@@ -3868,15 +4491,15 @@
       <c r="E11" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>288</v>
+      <c r="F11" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="H11" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="133"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="7" t="s">
         <v>123</v>
       </c>
@@ -3886,15 +4509,15 @@
       <c r="E12" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>289</v>
+      <c r="F12" s="29" t="s">
+        <v>279</v>
       </c>
       <c r="H12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="134"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="7" t="s">
         <v>124</v>
       </c>
@@ -3904,10 +4527,10 @@
       <c r="E13" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="188" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3919,13 +4542,13 @@
       <c r="E14" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="29"/>
       <c r="H14" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="133"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="7" t="s">
         <v>207</v>
       </c>
@@ -3935,13 +4558,13 @@
       <c r="E15" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="29"/>
       <c r="H15" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="133"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="7" t="s">
         <v>208</v>
       </c>
@@ -3951,13 +4574,13 @@
       <c r="E16" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="29"/>
       <c r="H16" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="133"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="7" t="s">
         <v>209</v>
       </c>
@@ -3967,13 +4590,13 @@
       <c r="E17" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="29"/>
       <c r="H17" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="133"/>
+      <c r="B18" s="189"/>
       <c r="C18" s="7" t="s">
         <v>163</v>
       </c>
@@ -3983,13 +4606,13 @@
       <c r="E18" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="29"/>
       <c r="H18" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="133"/>
+      <c r="B19" s="189"/>
       <c r="C19" s="7" t="s">
         <v>164</v>
       </c>
@@ -3999,13 +4622,13 @@
       <c r="E19" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="29"/>
       <c r="H19" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="133"/>
+      <c r="B20" s="189"/>
       <c r="C20" s="7" t="s">
         <v>210</v>
       </c>
@@ -4013,13 +4636,13 @@
       <c r="E20" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="29"/>
       <c r="H20" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="133"/>
+      <c r="B21" s="189"/>
       <c r="C21" s="7" t="s">
         <v>165</v>
       </c>
@@ -4027,13 +4650,13 @@
       <c r="E21" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="29"/>
       <c r="H21" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="133"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="7" t="s">
         <v>166</v>
       </c>
@@ -4041,13 +4664,13 @@
       <c r="E22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="29"/>
       <c r="I22" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="133"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="7" t="s">
         <v>167</v>
       </c>
@@ -4055,10 +4678,10 @@
       <c r="E23" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="133"/>
+      <c r="B24" s="189"/>
       <c r="C24" s="7" t="s">
         <v>168</v>
       </c>
@@ -4066,13 +4689,13 @@
       <c r="E24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="29"/>
       <c r="H24" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="133"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="7" t="s">
         <v>169</v>
       </c>
@@ -4080,10 +4703,10 @@
       <c r="E25" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="133"/>
+      <c r="B26" s="189"/>
       <c r="C26" s="7" t="s">
         <v>84</v>
       </c>
@@ -4091,13 +4714,13 @@
       <c r="E26" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="29"/>
       <c r="I26" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="133"/>
+      <c r="B27" s="189"/>
       <c r="C27" s="7" t="s">
         <v>170</v>
       </c>
@@ -4105,13 +4728,13 @@
       <c r="E27" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="29"/>
       <c r="I27" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="133"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="7" t="s">
         <v>171</v>
       </c>
@@ -4119,13 +4742,13 @@
       <c r="E28" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="29"/>
       <c r="I28" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="133"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="7" t="s">
         <v>172</v>
       </c>
@@ -4133,13 +4756,13 @@
       <c r="E29" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="29"/>
       <c r="I29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="134"/>
+      <c r="B30" s="190"/>
       <c r="C30" s="7" t="s">
         <v>173</v>
       </c>
@@ -4147,13 +4770,13 @@
       <c r="E30" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="29"/>
       <c r="H30" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="188" t="s">
         <v>200</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -4163,13 +4786,13 @@
       <c r="E31" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="29"/>
       <c r="H31" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="133"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
@@ -4177,13 +4800,13 @@
       <c r="E32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="29"/>
       <c r="H32" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="133"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
@@ -4191,13 +4814,13 @@
       <c r="E33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="29"/>
       <c r="H33" s="20">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="133"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
@@ -4205,13 +4828,13 @@
       <c r="E34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="29"/>
       <c r="H34" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="133"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="7" t="s">
         <v>38</v>
       </c>
@@ -4219,13 +4842,13 @@
       <c r="E35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="29"/>
       <c r="H35" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="133"/>
+      <c r="B36" s="189"/>
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
@@ -4233,13 +4856,13 @@
       <c r="E36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="29"/>
       <c r="I36" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="133"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
@@ -4247,13 +4870,13 @@
       <c r="E37" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="29"/>
       <c r="H37" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="133"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
@@ -4261,13 +4884,13 @@
       <c r="E38" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="29"/>
       <c r="H38" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="133"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="7" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4898,7 @@
       <c r="E39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="31"/>
+      <c r="F39" s="29"/>
       <c r="H39" s="20">
         <v>8</v>
       </c>
@@ -4284,7 +4907,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="133"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="7" t="s">
         <v>219</v>
       </c>
@@ -4292,13 +4915,13 @@
       <c r="E40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="29"/>
       <c r="H40" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="133"/>
+      <c r="B41" s="189"/>
       <c r="C41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4306,13 +4929,13 @@
       <c r="E41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="31"/>
+      <c r="F41" s="29"/>
       <c r="H41" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="133"/>
+      <c r="B42" s="189"/>
       <c r="C42" s="7" t="s">
         <v>53</v>
       </c>
@@ -4320,10 +4943,10 @@
       <c r="E42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="133"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="7" t="s">
         <v>54</v>
       </c>
@@ -4331,7 +4954,7 @@
       <c r="E43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="31"/>
+      <c r="F43" s="29"/>
       <c r="H43" s="20">
         <v>5</v>
       </c>
@@ -4340,7 +4963,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="134"/>
+      <c r="B44" s="190"/>
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
@@ -4348,10 +4971,10 @@
       <c r="E44" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="31"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="188" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -4361,13 +4984,13 @@
       <c r="E45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="31"/>
+      <c r="F45" s="29"/>
       <c r="H45" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="133"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="7" t="s">
         <v>51</v>
       </c>
@@ -4375,13 +4998,13 @@
       <c r="E46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="31"/>
+      <c r="F46" s="29"/>
       <c r="H46" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="133"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="7" t="s">
         <v>63</v>
       </c>
@@ -4389,13 +5012,13 @@
       <c r="E47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="31"/>
+      <c r="F47" s="29"/>
       <c r="H47" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="133"/>
+      <c r="B48" s="189"/>
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
@@ -4403,13 +5026,13 @@
       <c r="E48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="31"/>
+      <c r="F48" s="29"/>
       <c r="H48" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="133"/>
+      <c r="B49" s="189"/>
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
@@ -4417,13 +5040,13 @@
       <c r="E49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="31"/>
+      <c r="F49" s="29"/>
       <c r="H49" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="133"/>
+      <c r="B50" s="189"/>
       <c r="C50" s="7" t="s">
         <v>66</v>
       </c>
@@ -4431,13 +5054,13 @@
       <c r="E50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="31"/>
+      <c r="F50" s="29"/>
       <c r="H50" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="133"/>
+      <c r="B51" s="189"/>
       <c r="C51" s="7" t="s">
         <v>67</v>
       </c>
@@ -4445,10 +5068,10 @@
       <c r="E51" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="31"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="133"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="7" t="s">
         <v>68</v>
       </c>
@@ -4456,10 +5079,10 @@
       <c r="E52" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="31"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="133"/>
+      <c r="B53" s="189"/>
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
@@ -4467,10 +5090,10 @@
       <c r="E53" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="31"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="133"/>
+      <c r="B54" s="189"/>
       <c r="C54" s="7" t="s">
         <v>70</v>
       </c>
@@ -4478,14 +5101,14 @@
       <c r="E54" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F54" s="29"/>
       <c r="H54" s="20">
         <f>8+2</f>
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="133"/>
+      <c r="B55" s="189"/>
       <c r="C55" s="7" t="s">
         <v>81</v>
       </c>
@@ -4493,13 +5116,13 @@
       <c r="E55" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F55" s="29"/>
       <c r="H55" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="133"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="7" t="s">
         <v>82</v>
       </c>
@@ -4507,13 +5130,13 @@
       <c r="E56" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="31"/>
+      <c r="F56" s="29"/>
       <c r="H56" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="133"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="7" t="s">
         <v>83</v>
       </c>
@@ -4521,7 +5144,7 @@
       <c r="E57" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="31"/>
+      <c r="F57" s="29"/>
       <c r="H57" s="20">
         <v>3</v>
       </c>
@@ -4530,7 +5153,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="133"/>
+      <c r="B58" s="189"/>
       <c r="C58" s="7" t="s">
         <v>85</v>
       </c>
@@ -4538,13 +5161,13 @@
       <c r="E58" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="31"/>
+      <c r="F58" s="29"/>
       <c r="I58">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="133"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="7" t="s">
         <v>86</v>
       </c>
@@ -4552,13 +5175,13 @@
       <c r="E59" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="31"/>
+      <c r="F59" s="29"/>
       <c r="H59" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="134"/>
+      <c r="B60" s="190"/>
       <c r="C60" s="7" t="s">
         <v>87</v>
       </c>
@@ -4566,13 +5189,13 @@
       <c r="E60" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="31"/>
+      <c r="F60" s="29"/>
       <c r="H60" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="132" t="s">
+      <c r="B61" s="188" t="s">
         <v>202</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -4582,14 +5205,14 @@
       <c r="E61" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="36"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="22"/>
       <c r="H61" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="133"/>
+      <c r="B62" s="189"/>
       <c r="C62" s="8" t="s">
         <v>96</v>
       </c>
@@ -4597,14 +5220,14 @@
       <c r="E62" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F62" s="36"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="22"/>
       <c r="H62" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="133"/>
+      <c r="B63" s="189"/>
       <c r="C63" s="8" t="s">
         <v>97</v>
       </c>
@@ -4612,14 +5235,14 @@
       <c r="E63" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="36"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="22"/>
       <c r="H63" s="20">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="133"/>
+      <c r="B64" s="189"/>
       <c r="C64" s="8" t="s">
         <v>98</v>
       </c>
@@ -4627,14 +5250,14 @@
       <c r="E64" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="36"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="22"/>
       <c r="H64" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="133"/>
+      <c r="B65" s="189"/>
       <c r="C65" s="8" t="s">
         <v>99</v>
       </c>
@@ -4642,14 +5265,14 @@
       <c r="E65" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="36"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="22"/>
       <c r="H65" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="133"/>
+      <c r="B66" s="189"/>
       <c r="C66" s="8" t="s">
         <v>100</v>
       </c>
@@ -4657,14 +5280,14 @@
       <c r="E66" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="36"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="22"/>
       <c r="H66" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="133"/>
+      <c r="B67" s="189"/>
       <c r="C67" s="8" t="s">
         <v>101</v>
       </c>
@@ -4672,14 +5295,14 @@
       <c r="E67" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="36"/>
+      <c r="F67" s="33"/>
       <c r="G67" s="22"/>
       <c r="I67" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="133"/>
+      <c r="B68" s="189"/>
       <c r="C68" s="8" t="s">
         <v>102</v>
       </c>
@@ -4687,14 +5310,14 @@
       <c r="E68" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="36"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="22"/>
       <c r="I68" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="133"/>
+      <c r="B69" s="189"/>
       <c r="C69" s="8" t="s">
         <v>103</v>
       </c>
@@ -4702,14 +5325,14 @@
       <c r="E69" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F69" s="36"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="22"/>
       <c r="I69" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="133"/>
+      <c r="B70" s="189"/>
       <c r="C70" s="8" t="s">
         <v>104</v>
       </c>
@@ -4717,14 +5340,14 @@
       <c r="E70" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="36"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="22"/>
       <c r="H70" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="133"/>
+      <c r="B71" s="189"/>
       <c r="C71" s="8" t="s">
         <v>105</v>
       </c>
@@ -4732,14 +5355,14 @@
       <c r="E71" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="36"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="22"/>
       <c r="H71" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="133"/>
+      <c r="B72" s="189"/>
       <c r="C72" s="7" t="s">
         <v>191</v>
       </c>
@@ -4747,13 +5370,13 @@
       <c r="E72" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F72" s="31"/>
+      <c r="F72" s="29"/>
       <c r="H72" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="133"/>
+      <c r="B73" s="189"/>
       <c r="C73" s="7" t="s">
         <v>85</v>
       </c>
@@ -4761,10 +5384,10 @@
       <c r="E73" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F73" s="31"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="133"/>
+      <c r="B74" s="189"/>
       <c r="C74" s="7" t="s">
         <v>87</v>
       </c>
@@ -4772,10 +5395,10 @@
       <c r="E74" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F74" s="31"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="133"/>
+      <c r="B75" s="189"/>
       <c r="C75" s="7" t="s">
         <v>192</v>
       </c>
@@ -4783,10 +5406,10 @@
       <c r="E75" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="31"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B76" s="134"/>
+      <c r="B76" s="190"/>
       <c r="C76" s="7" t="s">
         <v>194</v>
       </c>
@@ -4794,10 +5417,10 @@
       <c r="E76" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F76" s="31"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="132" t="s">
+      <c r="B77" s="188" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -4807,13 +5430,13 @@
       <c r="E77" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F77" s="31"/>
+      <c r="F77" s="29"/>
       <c r="H77" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="133"/>
+      <c r="B78" s="189"/>
       <c r="C78" s="7" t="s">
         <v>134</v>
       </c>
@@ -4821,13 +5444,13 @@
       <c r="E78" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="31"/>
+      <c r="F78" s="29"/>
       <c r="H78" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="133"/>
+      <c r="B79" s="189"/>
       <c r="C79" s="7" t="s">
         <v>135</v>
       </c>
@@ -4835,13 +5458,13 @@
       <c r="E79" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="31"/>
+      <c r="F79" s="29"/>
       <c r="H79" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B80" s="133"/>
+      <c r="B80" s="189"/>
       <c r="C80" s="7" t="s">
         <v>136</v>
       </c>
@@ -4849,13 +5472,13 @@
       <c r="E80" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="31"/>
+      <c r="F80" s="29"/>
       <c r="I80" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B81" s="133"/>
+      <c r="B81" s="189"/>
       <c r="C81" s="7" t="s">
         <v>137</v>
       </c>
@@ -4863,13 +5486,13 @@
       <c r="E81" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F81" s="31"/>
+      <c r="F81" s="29"/>
       <c r="H81" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B82" s="133"/>
+      <c r="B82" s="189"/>
       <c r="C82" s="7" t="s">
         <v>138</v>
       </c>
@@ -4877,13 +5500,13 @@
       <c r="E82" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="31"/>
+      <c r="F82" s="29"/>
       <c r="H82" s="20">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B83" s="133"/>
+      <c r="B83" s="189"/>
       <c r="C83" s="7" t="s">
         <v>139</v>
       </c>
@@ -4891,13 +5514,13 @@
       <c r="E83" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F83" s="31"/>
+      <c r="F83" s="29"/>
       <c r="I83" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B84" s="133"/>
+      <c r="B84" s="189"/>
       <c r="C84" s="7" t="s">
         <v>140</v>
       </c>
@@ -4905,13 +5528,13 @@
       <c r="E84" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F84" s="31"/>
+      <c r="F84" s="29"/>
       <c r="I84" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B85" s="133"/>
+      <c r="B85" s="189"/>
       <c r="C85" s="7" t="s">
         <v>141</v>
       </c>
@@ -4919,13 +5542,13 @@
       <c r="E85" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="31"/>
+      <c r="F85" s="29"/>
       <c r="H85" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B86" s="133"/>
+      <c r="B86" s="189"/>
       <c r="C86" s="7" t="s">
         <v>142</v>
       </c>
@@ -4933,13 +5556,13 @@
       <c r="E86" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F86" s="31"/>
+      <c r="F86" s="29"/>
       <c r="H86" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="133"/>
+      <c r="B87" s="189"/>
       <c r="C87" s="7" t="s">
         <v>143</v>
       </c>
@@ -4947,10 +5570,10 @@
       <c r="E87" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F87" s="31"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B88" s="133"/>
+      <c r="B88" s="189"/>
       <c r="C88" s="7" t="s">
         <v>144</v>
       </c>
@@ -4958,13 +5581,13 @@
       <c r="E88" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F88" s="31"/>
+      <c r="F88" s="29"/>
       <c r="I88" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="133"/>
+      <c r="B89" s="189"/>
       <c r="C89" s="7" t="s">
         <v>84</v>
       </c>
@@ -4972,10 +5595,10 @@
       <c r="E89" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F89" s="31"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B90" s="133"/>
+      <c r="B90" s="189"/>
       <c r="C90" s="7" t="s">
         <v>145</v>
       </c>
@@ -4983,10 +5606,10 @@
       <c r="E90" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="31"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="135"/>
+      <c r="B91" s="191"/>
       <c r="C91" s="13" t="s">
         <v>146</v>
       </c>
@@ -4994,7 +5617,7 @@
       <c r="E91" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="32"/>
+      <c r="F91" s="30"/>
       <c r="I91" t="s">
         <v>224</v>
       </c>
@@ -5204,7 +5827,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="188" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -5215,7 +5838,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="133"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="7" t="s">
         <v>118</v>
       </c>
@@ -5224,7 +5847,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="133"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="7" t="s">
         <v>119</v>
       </c>
@@ -5233,7 +5856,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="7" t="s">
         <v>120</v>
       </c>
@@ -5242,7 +5865,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="133"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="7" t="s">
         <v>121</v>
       </c>
@@ -5251,7 +5874,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="133"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="7" t="s">
         <v>122</v>
       </c>
@@ -5260,7 +5883,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="133"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="7" t="s">
         <v>123</v>
       </c>
@@ -5272,7 +5895,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="134"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="7" t="s">
         <v>124</v>
       </c>
@@ -5281,7 +5904,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="188" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -5292,7 +5915,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="133"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="7" t="s">
         <v>207</v>
       </c>
@@ -5301,7 +5924,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="133"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="7" t="s">
         <v>208</v>
       </c>
@@ -5310,7 +5933,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="133"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="7" t="s">
         <v>209</v>
       </c>
@@ -5319,7 +5942,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="133"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="7" t="s">
         <v>163</v>
       </c>
@@ -5328,7 +5951,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="133"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="7" t="s">
         <v>164</v>
       </c>
@@ -5337,7 +5960,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="133"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="7" t="s">
         <v>210</v>
       </c>
@@ -5346,7 +5969,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="133"/>
+      <c r="B18" s="189"/>
       <c r="C18" s="7" t="s">
         <v>165</v>
       </c>
@@ -5355,7 +5978,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="133"/>
+      <c r="B19" s="189"/>
       <c r="C19" s="7" t="s">
         <v>166</v>
       </c>
@@ -5364,7 +5987,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="133"/>
+      <c r="B20" s="189"/>
       <c r="C20" s="7" t="s">
         <v>167</v>
       </c>
@@ -5373,7 +5996,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="133"/>
+      <c r="B21" s="189"/>
       <c r="C21" s="7" t="s">
         <v>168</v>
       </c>
@@ -5382,7 +6005,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="133"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="7" t="s">
         <v>169</v>
       </c>
@@ -5391,7 +6014,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="133"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
@@ -5400,7 +6023,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="133"/>
+      <c r="B24" s="189"/>
       <c r="C24" s="7" t="s">
         <v>170</v>
       </c>
@@ -5409,7 +6032,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="133"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="7" t="s">
         <v>171</v>
       </c>
@@ -5418,7 +6041,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="133"/>
+      <c r="B26" s="189"/>
       <c r="C26" s="7" t="s">
         <v>172</v>
       </c>
@@ -5427,7 +6050,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="134"/>
+      <c r="B27" s="190"/>
       <c r="C27" s="7" t="s">
         <v>173</v>
       </c>
@@ -5436,7 +6059,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="188" t="s">
         <v>200</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5447,7 +6070,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="133"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="7" t="s">
         <v>35</v>
       </c>
@@ -5456,7 +6079,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="133"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
@@ -5465,7 +6088,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="133"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="7" t="s">
         <v>37</v>
       </c>
@@ -5474,7 +6097,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="133"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
@@ -5483,7 +6106,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="133"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
@@ -5492,7 +6115,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="133"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="7" t="s">
         <v>40</v>
       </c>
@@ -5501,7 +6124,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="133"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
@@ -5510,7 +6133,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="133"/>
+      <c r="B36" s="189"/>
       <c r="C36" s="7" t="s">
         <v>50</v>
       </c>
@@ -5519,7 +6142,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="133"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
@@ -5528,7 +6151,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="133"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="7" t="s">
         <v>52</v>
       </c>
@@ -5537,7 +6160,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="133"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="7" t="s">
         <v>53</v>
       </c>
@@ -5546,7 +6169,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="133"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="7" t="s">
         <v>54</v>
       </c>
@@ -5555,7 +6178,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="134"/>
+      <c r="B41" s="190"/>
       <c r="C41" s="7" t="s">
         <v>55</v>
       </c>
@@ -5564,7 +6187,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="188" t="s">
         <v>201</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5575,7 +6198,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="133"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="7" t="s">
         <v>51</v>
       </c>
@@ -5584,7 +6207,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="133"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="7" t="s">
         <v>63</v>
       </c>
@@ -5593,7 +6216,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="133"/>
+      <c r="B45" s="189"/>
       <c r="C45" s="7" t="s">
         <v>64</v>
       </c>
@@ -5602,7 +6225,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="133"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="7" t="s">
         <v>65</v>
       </c>
@@ -5611,7 +6234,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="133"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="7" t="s">
         <v>66</v>
       </c>
@@ -5620,7 +6243,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="133"/>
+      <c r="B48" s="189"/>
       <c r="C48" s="7" t="s">
         <v>67</v>
       </c>
@@ -5629,7 +6252,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="133"/>
+      <c r="B49" s="189"/>
       <c r="C49" s="7" t="s">
         <v>68</v>
       </c>
@@ -5638,7 +6261,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="133"/>
+      <c r="B50" s="189"/>
       <c r="C50" s="7" t="s">
         <v>69</v>
       </c>
@@ -5647,7 +6270,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="133"/>
+      <c r="B51" s="189"/>
       <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
@@ -5656,7 +6279,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="133"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="7" t="s">
         <v>81</v>
       </c>
@@ -5665,7 +6288,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="133"/>
+      <c r="B53" s="189"/>
       <c r="C53" s="7" t="s">
         <v>82</v>
       </c>
@@ -5674,7 +6297,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="133"/>
+      <c r="B54" s="189"/>
       <c r="C54" s="7" t="s">
         <v>83</v>
       </c>
@@ -5683,7 +6306,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="133"/>
+      <c r="B55" s="189"/>
       <c r="C55" s="7" t="s">
         <v>84</v>
       </c>
@@ -5692,7 +6315,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="133"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="7" t="s">
         <v>85</v>
       </c>
@@ -5701,7 +6324,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="133"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="7" t="s">
         <v>86</v>
       </c>
@@ -5710,7 +6333,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="134"/>
+      <c r="B58" s="190"/>
       <c r="C58" s="7" t="s">
         <v>87</v>
       </c>
@@ -5719,7 +6342,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="132" t="s">
+      <c r="B59" s="188" t="s">
         <v>202</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -5730,7 +6353,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="133"/>
+      <c r="B60" s="189"/>
       <c r="C60" s="8" t="s">
         <v>96</v>
       </c>
@@ -5739,7 +6362,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="133"/>
+      <c r="B61" s="189"/>
       <c r="C61" s="8" t="s">
         <v>97</v>
       </c>
@@ -5748,7 +6371,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="133"/>
+      <c r="B62" s="189"/>
       <c r="C62" s="8" t="s">
         <v>98</v>
       </c>
@@ -5757,7 +6380,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="133"/>
+      <c r="B63" s="189"/>
       <c r="C63" s="8" t="s">
         <v>99</v>
       </c>
@@ -5766,7 +6389,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="133"/>
+      <c r="B64" s="189"/>
       <c r="C64" s="8" t="s">
         <v>100</v>
       </c>
@@ -5775,7 +6398,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="133"/>
+      <c r="B65" s="189"/>
       <c r="C65" s="8" t="s">
         <v>101</v>
       </c>
@@ -5784,7 +6407,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="133"/>
+      <c r="B66" s="189"/>
       <c r="C66" s="8" t="s">
         <v>102</v>
       </c>
@@ -5793,7 +6416,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="133"/>
+      <c r="B67" s="189"/>
       <c r="C67" s="8" t="s">
         <v>103</v>
       </c>
@@ -5802,7 +6425,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="133"/>
+      <c r="B68" s="189"/>
       <c r="C68" s="8" t="s">
         <v>104</v>
       </c>
@@ -5811,7 +6434,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="133"/>
+      <c r="B69" s="189"/>
       <c r="C69" s="8" t="s">
         <v>105</v>
       </c>
@@ -5820,7 +6443,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="133"/>
+      <c r="B70" s="189"/>
       <c r="C70" s="7" t="s">
         <v>191</v>
       </c>
@@ -5829,7 +6452,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="133"/>
+      <c r="B71" s="189"/>
       <c r="C71" s="7" t="s">
         <v>85</v>
       </c>
@@ -5838,7 +6461,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="133"/>
+      <c r="B72" s="189"/>
       <c r="C72" s="7" t="s">
         <v>87</v>
       </c>
@@ -5847,7 +6470,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="133"/>
+      <c r="B73" s="189"/>
       <c r="C73" s="7" t="s">
         <v>192</v>
       </c>
@@ -5856,7 +6479,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="133"/>
+      <c r="B74" s="189"/>
       <c r="C74" s="7" t="s">
         <v>193</v>
       </c>
@@ -5865,7 +6488,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="134"/>
+      <c r="B75" s="190"/>
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Subscription\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802FDA4-F9BD-462E-BF4D-28126314EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874AB52E-920F-46A3-9BFB-761E7A795A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5B2F1A05-902E-44E1-BBBE-A58D9230A467}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04oct'!$B$2:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04oct'!$B$2:$H$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="396">
   <si>
     <t xml:space="preserve"> Task Description                         Status     </t>
   </si>
@@ -1152,9 +1152,6 @@
     <t xml:space="preserve">Designing the products page along with left side filter bar </t>
   </si>
   <si>
-    <t>Getting the  total Products list from API  to display in the products page along with filter option</t>
-  </si>
-  <si>
     <t>after clicking  the wishlist button , the product have to add to the wishlist of respective user</t>
   </si>
   <si>
@@ -1242,9 +1239,6 @@
     <t>Subscription  selection</t>
   </si>
   <si>
-    <t>Displaying selected product with price, Image and subscription amount form backend  code</t>
-  </si>
-  <si>
     <t>Qyuantity Change</t>
   </si>
   <si>
@@ -1315,6 +1309,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Pop Up for Subscription</t>
+  </si>
+  <si>
+    <t>Create an adress table by using the USerID as Foreign key to store the addresses of the users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating and API for inserting the category and also for retriecving the categories with Images </t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating and API for inserting the Brands and also for retrieving the Brands with Images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating and API for inserting the Products and also for retrieving the Products with Images </t>
+  </si>
+  <si>
+    <t>Retrieving subscriptions data to show in the subscription popup for the respecgtive products</t>
+  </si>
+  <si>
+    <t>Subscription / Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incase the user want's to go back Exit button is provided in popup  and the item should have to be in cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscription Details Storing </t>
+  </si>
+  <si>
+    <t>Saving the subscription details afetr successful subscription of the user along with the order id , order details such as Adress,start date ,end date, amount, quantity , size of product, location   ( separately in the order table and users subscriptions  table)</t>
+  </si>
+  <si>
+    <t>Quantity Change</t>
+  </si>
+  <si>
+    <t>Payment Details</t>
+  </si>
+  <si>
+    <t>Saving the Payment data along with the order details after placing a successful order and if the payment was failed due to RAZORPAY issue  and the amount has been debited from customer , then the failed transaction details  also have to be stored in the table in the category of FAILED TRANSACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generating the payment &amp; Subscription Summary after the successful or Failed payment o f subscription in PDF format   </t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1930,12 +1969,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2185,15 +2287,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2357,25 +2450,16 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2477,6 +2561,50 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2798,10 +2926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}">
-  <dimension ref="B1:H82"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.3"/>
@@ -2816,23 +2945,23 @@
   <sheetData>
     <row r="1" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="158"/>
-      <c r="C2" s="159" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="160" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="114" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173" t="s">
+    <row r="3" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="165" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -2844,7 +2973,7 @@
       <c r="E3" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G3" s="39" t="s">
@@ -2854,8 +2983,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="174"/>
+    <row r="4" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="166"/>
       <c r="C4" s="40" t="s">
         <v>212</v>
       </c>
@@ -2865,15 +2994,15 @@
       <c r="E4" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="174"/>
+    <row r="5" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="166"/>
       <c r="C5" s="40" t="s">
         <v>241</v>
       </c>
@@ -2883,15 +3012,15 @@
       <c r="E5" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="174"/>
+    <row r="6" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="166"/>
       <c r="C6" s="40" t="s">
         <v>239</v>
       </c>
@@ -2901,7 +3030,7 @@
       <c r="E6" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G6" s="43" t="s">
@@ -2911,8 +3040,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="174"/>
+    <row r="7" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="166"/>
       <c r="C7" s="40" t="s">
         <v>294</v>
       </c>
@@ -2922,13 +3051,13 @@
       <c r="E7" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G7" s="43"/>
     </row>
-    <row r="8" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="174"/>
+    <row r="8" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="166"/>
       <c r="C8" s="40" t="s">
         <v>294</v>
       </c>
@@ -2938,13 +3067,13 @@
       <c r="E8" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G8" s="43"/>
     </row>
-    <row r="9" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="174"/>
+    <row r="9" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="166"/>
       <c r="C9" s="40" t="s">
         <v>297</v>
       </c>
@@ -2954,13 +3083,13 @@
       <c r="E9" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G9" s="43"/>
     </row>
-    <row r="10" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="174"/>
+    <row r="10" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="166"/>
       <c r="C10" s="40" t="s">
         <v>299</v>
       </c>
@@ -2970,7 +3099,7 @@
       <c r="E10" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G10" s="43" t="s">
@@ -2980,8 +3109,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="174"/>
+    <row r="11" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="166"/>
       <c r="C11" s="40" t="s">
         <v>117</v>
       </c>
@@ -2991,7 +3120,7 @@
       <c r="E11" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G11" s="43" t="s">
@@ -3001,8 +3130,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="174"/>
+    <row r="12" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="166"/>
       <c r="C12" s="40" t="s">
         <v>228</v>
       </c>
@@ -3012,13 +3141,13 @@
       <c r="E12" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G12" s="43"/>
     </row>
-    <row r="13" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="174"/>
+    <row r="13" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="166"/>
       <c r="C13" s="40" t="s">
         <v>240</v>
       </c>
@@ -3028,13 +3157,13 @@
       <c r="E13" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G13" s="43"/>
     </row>
-    <row r="14" spans="2:8" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="174"/>
+    <row r="14" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="166"/>
       <c r="C14" s="40" t="s">
         <v>120</v>
       </c>
@@ -3044,7 +3173,7 @@
       <c r="E14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G14" s="43" t="s">
@@ -3054,8 +3183,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="175"/>
+    <row r="15" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="167"/>
       <c r="C15" s="44" t="s">
         <v>284</v>
       </c>
@@ -3065,15 +3194,15 @@
       <c r="E15" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="176"/>
+    <row r="16" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="168"/>
       <c r="C16" s="48" t="s">
         <v>121</v>
       </c>
@@ -3083,15 +3212,15 @@
       <c r="E16" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="164" t="s">
+    <row r="17" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="156" t="s">
         <v>245</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -3103,7 +3232,7 @@
       <c r="E17" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="111" t="s">
         <v>283</v>
       </c>
       <c r="G17" s="55" t="s">
@@ -3113,8 +3242,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="177"/>
+    <row r="18" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="169"/>
       <c r="C18" s="52" t="s">
         <v>242</v>
       </c>
@@ -3124,15 +3253,15 @@
       <c r="E18" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="114" t="s">
-        <v>346</v>
+      <c r="F18" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="165"/>
+    <row r="19" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="157"/>
       <c r="C19" s="56" t="s">
         <v>244</v>
       </c>
@@ -3142,7 +3271,7 @@
       <c r="E19" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G19" s="59" t="s">
@@ -3152,8 +3281,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="165"/>
+    <row r="20" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="157"/>
       <c r="C20" s="56" t="s">
         <v>246</v>
       </c>
@@ -3163,15 +3292,15 @@
       <c r="E20" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G20" s="59" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="165"/>
+    <row r="21" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="157"/>
       <c r="C21" s="56" t="s">
         <v>288</v>
       </c>
@@ -3181,15 +3310,15 @@
       <c r="E21" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="F21" s="114" t="s">
-        <v>346</v>
+      <c r="F21" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G21" s="59" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="165"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="56" t="s">
         <v>288</v>
       </c>
@@ -3206,8 +3335,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="165"/>
+    <row r="23" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="157"/>
       <c r="C23" s="56" t="s">
         <v>288</v>
       </c>
@@ -3217,15 +3346,15 @@
       <c r="E23" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G23" s="59" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="165"/>
+    <row r="24" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="157"/>
       <c r="C24" s="56" t="s">
         <v>291</v>
       </c>
@@ -3235,15 +3364,15 @@
       <c r="E24" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="114" t="s">
-        <v>346</v>
+      <c r="F24" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G24" s="59" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="165"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="56" t="s">
         <v>291</v>
       </c>
@@ -3260,8 +3389,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="165"/>
+    <row r="26" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="157"/>
       <c r="C26" s="56" t="s">
         <v>291</v>
       </c>
@@ -3271,15 +3400,15 @@
       <c r="E26" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G26" s="59" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="165"/>
+    <row r="27" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="157"/>
       <c r="C27" s="56" t="s">
         <v>312</v>
       </c>
@@ -3289,7 +3418,7 @@
       <c r="E27" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="109" t="s">
+      <c r="F27" s="106" t="s">
         <v>283</v>
       </c>
       <c r="G27" s="59" t="s">
@@ -3299,8 +3428,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="166"/>
+    <row r="28" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="158"/>
       <c r="C28" s="60" t="s">
         <v>289</v>
       </c>
@@ -3310,230 +3439,215 @@
       <c r="E28" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="F28" s="114" t="s">
-        <v>346</v>
+      <c r="F28" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G28" s="59" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="166"/>
+    <row r="29" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="158"/>
       <c r="C29" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>292</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="F29" s="114" t="s">
         <v>346</v>
+      </c>
+      <c r="F29" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G29" s="59" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="166"/>
+    <row r="30" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="158"/>
       <c r="C30" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D30" s="61" t="s">
         <v>292</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="F30" s="114" t="s">
-        <v>346</v>
+        <v>349</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G30" s="59" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="166"/>
+    <row r="31" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="158"/>
       <c r="C31" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D31" s="61" t="s">
         <v>292</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="F31" s="114" t="s">
-        <v>346</v>
+        <v>350</v>
+      </c>
+      <c r="F31" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G31" s="59" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="166"/>
+    <row r="32" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="158"/>
       <c r="C32" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D32" s="61" t="s">
         <v>227</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>309</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="178"/>
-      <c r="C33" s="63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="158"/>
+    </row>
+    <row r="34" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="170"/>
+      <c r="C34" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D34" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E34" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="F33" s="109" t="s">
+      <c r="F34" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G34" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H34" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="170" t="s">
+    <row r="35" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="162" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C35" s="67" t="s">
         <v>248</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="F34" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G34" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="H34" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="179"/>
-      <c r="C35" s="67" t="s">
-        <v>249</v>
       </c>
       <c r="D35" s="68" t="s">
         <v>226</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="114" t="s">
-        <v>346</v>
+        <v>353</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G35" s="70" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="171"/>
-      <c r="C36" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="72" t="s">
+      <c r="C36" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="171"/>
+      <c r="E36" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="163"/>
       <c r="C37" s="71" t="s">
         <v>251</v>
       </c>
       <c r="D37" s="72" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="E37" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="F37" s="114" t="s">
-        <v>346</v>
+        <v>277</v>
+      </c>
+      <c r="F37" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H37" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="171"/>
+    <row r="38" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="163"/>
       <c r="C38" s="71" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="E38" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" s="114" t="s">
-        <v>346</v>
+        <v>276</v>
+      </c>
+      <c r="F38" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H38" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="171"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="163"/>
       <c r="C39" s="71" t="s">
         <v>315</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="E39" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="F39" s="109" t="s">
-        <v>283</v>
+        <v>318</v>
+      </c>
+      <c r="F39" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G39" s="74" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="171"/>
+      <c r="H39" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="163"/>
       <c r="C40" s="71" t="s">
         <v>315</v>
       </c>
@@ -3541,752 +3655,951 @@
         <v>292</v>
       </c>
       <c r="E40" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="F40" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="70.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="163"/>
+      <c r="C41" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="F40" s="109" t="s">
+      <c r="F41" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G41" s="74" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="171"/>
-      <c r="C41" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="F41" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G41" s="74" t="s">
+    <row r="42" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="163"/>
+      <c r="C42" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D42" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="F42" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="74" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="172"/>
-      <c r="C42" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="F42" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G42" s="95" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="172"/>
+    <row r="43" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="163"/>
       <c r="C43" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="D43" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F43" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" s="74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="164"/>
+      <c r="C44" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E44" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F44" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="70.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="164"/>
+      <c r="C45" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="F43" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G43" s="95" t="s">
+      <c r="F45" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" s="92" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="180"/>
-      <c r="C44" s="105" t="s">
+    <row r="46" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="172"/>
+      <c r="C46" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D46" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E46" s="73" t="s">
         <v>320</v>
       </c>
-      <c r="F44" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G44" s="70" t="s">
+      <c r="F46" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="180"/>
-      <c r="C45" s="105" t="s">
+    <row r="47" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="172"/>
+      <c r="C47" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D47" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="E45" s="73" t="s">
+      <c r="E47" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="F45" s="109" t="s">
+      <c r="F47" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="G47" s="92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="172"/>
-      <c r="C46" s="96" t="s">
+    <row r="48" spans="2:8" ht="70.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="172"/>
+      <c r="C48" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D48" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="E46" s="97" t="s">
+      <c r="E48" s="94" t="s">
         <v>323</v>
       </c>
-      <c r="F46" s="110" t="s">
+      <c r="F48" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="G46" s="95" t="s">
+      <c r="G48" s="92" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="181" t="s">
+    <row r="49" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="164"/>
+      <c r="C49" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="173" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C50" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D50" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="E47" s="79" t="s">
+      <c r="E50" s="79" t="s">
         <v>327</v>
       </c>
-      <c r="F47" s="111" t="s">
+      <c r="F50" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="G47" s="80" t="s">
+      <c r="G50" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H50" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="182"/>
-      <c r="C48" s="103" t="s">
+    <row r="51" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="174"/>
+      <c r="C51" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D51" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E51" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="F51" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="174"/>
+      <c r="C52" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="174"/>
+      <c r="C53" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="D53" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="F53" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="174"/>
+      <c r="C54" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="82" t="s">
         <v>328</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F54" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="G48" s="83" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="182"/>
-      <c r="C49" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E49" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="F49" s="112" t="s">
-        <v>283</v>
-      </c>
-      <c r="G49" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="182"/>
-      <c r="C50" s="103" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="82" t="s">
+      <c r="G54" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="174"/>
+      <c r="C55" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="F50" s="115" t="s">
-        <v>346</v>
-      </c>
-      <c r="G50" s="83" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="182"/>
-      <c r="C51" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E51" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="F51" s="112" t="s">
-        <v>283</v>
-      </c>
-      <c r="G51" s="83" t="s">
+      <c r="F55" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="182"/>
-      <c r="C52" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="82" t="s">
+    <row r="56" spans="2:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="174"/>
+      <c r="C56" s="100" t="s">
         <v>332</v>
-      </c>
-      <c r="F52" s="98" t="s">
-        <v>309</v>
-      </c>
-      <c r="G52" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="182"/>
-      <c r="C53" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="F53" s="112" t="s">
-        <v>283</v>
-      </c>
-      <c r="G53" s="83" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="182"/>
-      <c r="C54" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="F54" s="115" t="s">
-        <v>346</v>
-      </c>
-      <c r="G54" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="182"/>
-      <c r="C55" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E55" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="F55" s="115" t="s">
-        <v>346</v>
-      </c>
-      <c r="G55" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="182"/>
-      <c r="C56" s="103" t="s">
-        <v>258</v>
       </c>
       <c r="D56" s="81" t="s">
         <v>292</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>335</v>
-      </c>
-      <c r="F56" s="112" t="s">
+        <v>333</v>
+      </c>
+      <c r="F56" s="109" t="s">
         <v>283</v>
       </c>
       <c r="G56" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="183"/>
-      <c r="C57" s="103" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="174"/>
+      <c r="C57" s="100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="G57" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="174"/>
+      <c r="C58" s="100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="F58" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="G58" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="174"/>
+      <c r="C59" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="D57" s="106" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="107" t="s">
-        <v>336</v>
-      </c>
-      <c r="F57" s="108" t="s">
-        <v>309</v>
-      </c>
-      <c r="G57" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="183"/>
-      <c r="C58" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="106" t="s">
+      <c r="D59" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="E58" s="107" t="s">
-        <v>337</v>
-      </c>
-      <c r="F58" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G58" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="184"/>
-      <c r="C59" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="F59" s="101" t="s">
-        <v>309</v>
+      <c r="E59" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" s="109" t="s">
+        <v>283</v>
       </c>
       <c r="G59" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="185" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E60" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="F60" s="113" t="s">
-        <v>283</v>
+    <row r="60" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="175"/>
+      <c r="C60" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="105" t="s">
+        <v>309</v>
       </c>
       <c r="G60" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="H60" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="185"/>
-      <c r="C61" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="D61" s="88" t="s">
+    </row>
+    <row r="61" spans="2:8" ht="72" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="175"/>
+      <c r="C61" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="103" t="s">
         <v>292</v>
       </c>
-      <c r="E61" s="89" t="s">
-        <v>263</v>
-      </c>
-      <c r="F61" s="113" t="s">
-        <v>283</v>
+      <c r="E61" s="104" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G61" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="186"/>
-      <c r="C62" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="D62" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="E62" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="F62" s="114" t="s">
-        <v>346</v>
+    <row r="62" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="176"/>
+      <c r="C62" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="98" t="s">
+        <v>309</v>
       </c>
       <c r="G62" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="187"/>
-      <c r="C63" s="92" t="s">
+    <row r="63" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E63" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="177"/>
+      <c r="C64" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="178"/>
+      <c r="C65" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G65" s="83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="179"/>
+      <c r="C66" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D66" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="E63" s="93" t="s">
+      <c r="E66" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="F63" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G63" s="83" t="s">
+      <c r="F66" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G66" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="170" t="s">
+    <row r="67" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C67" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D67" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="E64" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="F64" s="39" t="s">
+      <c r="E67" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" s="39" t="s">
         <v>309</v>
-      </c>
-      <c r="G64" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="H64" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="171"/>
-      <c r="C65" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E65" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="F65" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G65" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="172"/>
-      <c r="C66" s="96" t="s">
-        <v>342</v>
-      </c>
-      <c r="D66" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="F66" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G66" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="172"/>
-      <c r="C67" s="96" t="s">
-        <v>345</v>
-      </c>
-      <c r="D67" s="94" t="s">
-        <v>292</v>
-      </c>
-      <c r="E67" s="97" t="s">
-        <v>344</v>
-      </c>
-      <c r="F67" s="114" t="s">
-        <v>346</v>
       </c>
       <c r="G67" s="83" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="172"/>
-      <c r="C68" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="76" t="s">
+      <c r="H67" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="163"/>
+      <c r="C68" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="F68" s="114" t="s">
-        <v>346</v>
+      <c r="E68" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="G68" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="172"/>
-      <c r="C69" s="96" t="s">
+    <row r="69" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="164"/>
+      <c r="C69" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="164"/>
+      <c r="C70" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="F70" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="164"/>
+      <c r="C71" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="94" t="s">
+      <c r="D71" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="F71" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G71" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="164"/>
+      <c r="C72" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="E69" s="97" t="s">
-        <v>341</v>
-      </c>
-      <c r="F69" s="121" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" s="122" t="s">
+      <c r="E72" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="G72" s="119" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B70" s="161" t="s">
-        <v>355</v>
-      </c>
-      <c r="C70" s="131" t="s">
-        <v>382</v>
-      </c>
-      <c r="D70" s="126" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="127" t="s">
-        <v>356</v>
-      </c>
-      <c r="F70" s="128"/>
-      <c r="G70" s="129"/>
-    </row>
-    <row r="71" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="162"/>
-      <c r="C71" s="132" t="s">
-        <v>357</v>
-      </c>
-      <c r="D71" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" s="124" t="s">
-        <v>358</v>
-      </c>
-      <c r="F71" s="125"/>
-      <c r="G71" s="130"/>
-    </row>
-    <row r="72" spans="2:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="162"/>
-      <c r="C72" s="132" t="s">
-        <v>359</v>
-      </c>
-      <c r="D72" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="124" t="s">
-        <v>360</v>
-      </c>
-      <c r="F72" s="125"/>
-      <c r="G72" s="130"/>
-    </row>
-    <row r="73" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="162"/>
-      <c r="C73" s="132" t="s">
-        <v>361</v>
+    <row r="73" spans="2:8" ht="141" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="153" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="128" t="s">
+        <v>380</v>
       </c>
       <c r="D73" s="123" t="s">
         <v>226</v>
       </c>
       <c r="E73" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="125"/>
+      <c r="G73" s="126"/>
+    </row>
+    <row r="74" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="154"/>
+      <c r="C74" s="129" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="121" t="s">
+        <v>386</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74" s="127"/>
+    </row>
+    <row r="75" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="154"/>
+      <c r="C75" s="129" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="F75" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="G75" s="127"/>
+    </row>
+    <row r="76" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="154"/>
+      <c r="C76" s="129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="121" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="122"/>
+      <c r="G76" s="127"/>
+    </row>
+    <row r="77" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="155"/>
+      <c r="C77" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="E77" s="132" t="s">
         <v>362</v>
       </c>
-      <c r="F73" s="125"/>
-      <c r="G73" s="130"/>
-    </row>
-    <row r="74" spans="2:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="163"/>
-      <c r="C74" s="133" t="s">
+      <c r="F77" s="133"/>
+      <c r="G77" s="134"/>
+    </row>
+    <row r="78" spans="2:8" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="153" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" s="128" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="124" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G78" s="126"/>
+    </row>
+    <row r="79" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="154"/>
+      <c r="C79" s="129" t="s">
+        <v>356</v>
+      </c>
+      <c r="D79" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="121" t="s">
+        <v>386</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="127"/>
+    </row>
+    <row r="80" spans="2:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="154"/>
+      <c r="C80" s="129" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" s="127"/>
+    </row>
+    <row r="81" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="154"/>
+      <c r="C81" s="129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="121" t="s">
+        <v>360</v>
+      </c>
+      <c r="F81" s="122"/>
+      <c r="G81" s="127"/>
+    </row>
+    <row r="82" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="155"/>
+      <c r="C82" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="E82" s="132" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="133"/>
+      <c r="G82" s="134"/>
+    </row>
+    <row r="83" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="156" t="s">
         <v>363</v>
       </c>
-      <c r="D74" s="134" t="s">
+      <c r="C83" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="184" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="169"/>
+      <c r="C84" s="140" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F84" s="137"/>
+      <c r="G84" s="138"/>
+    </row>
+    <row r="85" spans="2:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="157"/>
+      <c r="C85" s="141" t="s">
+        <v>366</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="F85" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G85" s="139"/>
+    </row>
+    <row r="86" spans="2:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="157"/>
+      <c r="C86" s="141" t="s">
+        <v>368</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="135"/>
+      <c r="G86" s="139"/>
+    </row>
+    <row r="87" spans="2:7" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="158"/>
+      <c r="C87" s="142" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="E74" s="135" t="s">
-        <v>364</v>
-      </c>
-      <c r="F74" s="136"/>
-      <c r="G74" s="137"/>
-    </row>
-    <row r="75" spans="2:7" ht="117" x14ac:dyDescent="0.3">
-      <c r="B75" s="164" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" s="143" t="s">
-        <v>366</v>
-      </c>
-      <c r="D75" s="139" t="s">
+      <c r="E87" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="F87" s="143"/>
+      <c r="G87" s="144"/>
+    </row>
+    <row r="88" spans="2:7" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" s="189" t="s">
+        <v>372</v>
+      </c>
+      <c r="D88" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="E75" s="54" t="s">
-        <v>367</v>
-      </c>
-      <c r="F75" s="140"/>
-      <c r="G75" s="141"/>
-    </row>
-    <row r="76" spans="2:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="B76" s="165"/>
-      <c r="C76" s="144" t="s">
-        <v>368</v>
-      </c>
-      <c r="D76" s="57" t="s">
+      <c r="E88" s="191" t="s">
+        <v>373</v>
+      </c>
+      <c r="F88" s="192"/>
+      <c r="G88" s="193"/>
+    </row>
+    <row r="89" spans="2:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="159"/>
+      <c r="C89" s="145" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="F76" s="138"/>
-      <c r="G76" s="142"/>
-    </row>
-    <row r="77" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="165"/>
-      <c r="C77" s="144" t="s">
-        <v>370</v>
-      </c>
-      <c r="D77" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="58" t="s">
-        <v>371</v>
-      </c>
-      <c r="F77" s="138"/>
-      <c r="G77" s="142"/>
-    </row>
-    <row r="78" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="166"/>
-      <c r="C78" s="145" t="s">
-        <v>372</v>
-      </c>
-      <c r="D78" s="61" t="s">
+      <c r="E89" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="F89" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G89" s="146"/>
+    </row>
+    <row r="90" spans="2:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="160"/>
+      <c r="C90" s="147" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="F90" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G90" s="148"/>
+    </row>
+    <row r="91" spans="2:7" ht="164.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="160"/>
+      <c r="C91" s="185" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" s="186" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="187" t="s">
+        <v>393</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G91" s="188"/>
+    </row>
+    <row r="92" spans="2:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="161"/>
+      <c r="C92" s="149" t="s">
+        <v>394</v>
+      </c>
+      <c r="D92" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="90" t="s">
+        <v>395</v>
+      </c>
+      <c r="F92" s="199" t="s">
+        <v>309</v>
+      </c>
+      <c r="G92" s="117"/>
+    </row>
+    <row r="93" spans="2:7" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="161"/>
+      <c r="C93" s="194" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="E78" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="F78" s="146"/>
-      <c r="G78" s="147"/>
-    </row>
-    <row r="79" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="167" t="s">
-        <v>376</v>
-      </c>
-      <c r="C79" s="148" t="s">
-        <v>374</v>
-      </c>
-      <c r="D79" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="E79" s="89" t="s">
-        <v>375</v>
-      </c>
-      <c r="F79" s="149"/>
-      <c r="G79" s="150"/>
-    </row>
-    <row r="80" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B80" s="168"/>
-      <c r="C80" s="151" t="s">
-        <v>377</v>
-      </c>
-      <c r="D80" s="118" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="F80" s="152"/>
-      <c r="G80" s="153"/>
-    </row>
-    <row r="81" spans="2:7" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="B81" s="168"/>
-      <c r="C81" s="151" t="s">
+      <c r="E93" s="196" t="s">
         <v>379</v>
       </c>
-      <c r="D81" s="118" t="s">
-        <v>227</v>
-      </c>
-      <c r="E81" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="F81" s="154"/>
-      <c r="G81" s="155"/>
-    </row>
-    <row r="82" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="169"/>
-      <c r="C82" s="156" t="s">
-        <v>379</v>
-      </c>
-      <c r="D82" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="E82" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="F82" s="157"/>
-      <c r="G82" s="120"/>
+      <c r="F93" s="197"/>
+      <c r="G93" s="198"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H69" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}"/>
-  <mergeCells count="9">
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B64:B69"/>
+  <autoFilter ref="B2:H93" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Siva"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="10">
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B67:B72"/>
     <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B33"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="B47:B59"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B17:B34"/>
+    <mergeCell ref="B35:B49"/>
+    <mergeCell ref="B50:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B78:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4331,7 +4644,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="180" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4351,7 +4664,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="189"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="7" t="s">
         <v>213</v>
       </c>
@@ -4369,7 +4682,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="189"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
@@ -4387,7 +4700,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="189"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="7" t="s">
         <v>228</v>
       </c>
@@ -4405,7 +4718,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="189"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="7" t="s">
         <v>118</v>
       </c>
@@ -4423,7 +4736,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="189"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="7" t="s">
         <v>119</v>
       </c>
@@ -4441,7 +4754,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="189"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="7" t="s">
         <v>120</v>
       </c>
@@ -4462,7 +4775,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="189"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="7" t="s">
         <v>121</v>
       </c>
@@ -4481,7 +4794,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="189"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="7" t="s">
         <v>122</v>
       </c>
@@ -4499,7 +4812,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="189"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="7" t="s">
         <v>123</v>
       </c>
@@ -4517,7 +4830,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="190"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="7" t="s">
         <v>124</v>
       </c>
@@ -4530,7 +4843,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="180" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -4548,7 +4861,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="189"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="7" t="s">
         <v>207</v>
       </c>
@@ -4564,7 +4877,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="189"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="7" t="s">
         <v>208</v>
       </c>
@@ -4580,7 +4893,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="189"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="7" t="s">
         <v>209</v>
       </c>
@@ -4596,7 +4909,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="189"/>
+      <c r="B18" s="181"/>
       <c r="C18" s="7" t="s">
         <v>163</v>
       </c>
@@ -4612,7 +4925,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="189"/>
+      <c r="B19" s="181"/>
       <c r="C19" s="7" t="s">
         <v>164</v>
       </c>
@@ -4628,7 +4941,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="189"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="7" t="s">
         <v>210</v>
       </c>
@@ -4642,7 +4955,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="189"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="7" t="s">
         <v>165</v>
       </c>
@@ -4656,7 +4969,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="189"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="7" t="s">
         <v>166</v>
       </c>
@@ -4670,7 +4983,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="189"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="7" t="s">
         <v>167</v>
       </c>
@@ -4681,7 +4994,7 @@
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="189"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="7" t="s">
         <v>168</v>
       </c>
@@ -4695,7 +5008,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="189"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="7" t="s">
         <v>169</v>
       </c>
@@ -4706,7 +5019,7 @@
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="189"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="7" t="s">
         <v>84</v>
       </c>
@@ -4720,7 +5033,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="189"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="7" t="s">
         <v>170</v>
       </c>
@@ -4734,7 +5047,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="189"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="7" t="s">
         <v>171</v>
       </c>
@@ -4748,7 +5061,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="189"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="7" t="s">
         <v>172</v>
       </c>
@@ -4762,7 +5075,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="190"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="7" t="s">
         <v>173</v>
       </c>
@@ -4776,7 +5089,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="188" t="s">
+      <c r="B31" s="180" t="s">
         <v>200</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -4792,7 +5105,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="189"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
@@ -4806,7 +5119,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="189"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
@@ -4820,7 +5133,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="189"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
@@ -4834,7 +5147,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="189"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="7" t="s">
         <v>38</v>
       </c>
@@ -4848,7 +5161,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="189"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
@@ -4862,7 +5175,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="189"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
@@ -4876,7 +5189,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="189"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
@@ -4890,7 +5203,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="189"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="7" t="s">
         <v>50</v>
       </c>
@@ -4907,7 +5220,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="189"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="7" t="s">
         <v>219</v>
       </c>
@@ -4921,7 +5234,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="189"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4935,7 +5248,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="189"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="7" t="s">
         <v>53</v>
       </c>
@@ -4946,7 +5259,7 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="189"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="7" t="s">
         <v>54</v>
       </c>
@@ -4963,7 +5276,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="190"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
@@ -4974,7 +5287,7 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="180" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -4990,7 +5303,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="189"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="7" t="s">
         <v>51</v>
       </c>
@@ -5004,7 +5317,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="189"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="7" t="s">
         <v>63</v>
       </c>
@@ -5018,7 +5331,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="189"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
@@ -5032,7 +5345,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="189"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
@@ -5046,7 +5359,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="189"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="7" t="s">
         <v>66</v>
       </c>
@@ -5060,7 +5373,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="189"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="7" t="s">
         <v>67</v>
       </c>
@@ -5071,7 +5384,7 @@
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="189"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="7" t="s">
         <v>68</v>
       </c>
@@ -5082,7 +5395,7 @@
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="189"/>
+      <c r="B53" s="181"/>
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
@@ -5093,7 +5406,7 @@
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="189"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="7" t="s">
         <v>70</v>
       </c>
@@ -5108,7 +5421,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="189"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="7" t="s">
         <v>81</v>
       </c>
@@ -5122,7 +5435,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="189"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="7" t="s">
         <v>82</v>
       </c>
@@ -5136,7 +5449,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="189"/>
+      <c r="B57" s="181"/>
       <c r="C57" s="7" t="s">
         <v>83</v>
       </c>
@@ -5153,7 +5466,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="189"/>
+      <c r="B58" s="181"/>
       <c r="C58" s="7" t="s">
         <v>85</v>
       </c>
@@ -5167,7 +5480,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="189"/>
+      <c r="B59" s="181"/>
       <c r="C59" s="7" t="s">
         <v>86</v>
       </c>
@@ -5181,7 +5494,7 @@
       </c>
     </row>
     <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="190"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="7" t="s">
         <v>87</v>
       </c>
@@ -5195,7 +5508,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="188" t="s">
+      <c r="B61" s="180" t="s">
         <v>202</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -5212,7 +5525,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="189"/>
+      <c r="B62" s="181"/>
       <c r="C62" s="8" t="s">
         <v>96</v>
       </c>
@@ -5227,7 +5540,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="189"/>
+      <c r="B63" s="181"/>
       <c r="C63" s="8" t="s">
         <v>97</v>
       </c>
@@ -5242,7 +5555,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="189"/>
+      <c r="B64" s="181"/>
       <c r="C64" s="8" t="s">
         <v>98</v>
       </c>
@@ -5257,7 +5570,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="189"/>
+      <c r="B65" s="181"/>
       <c r="C65" s="8" t="s">
         <v>99</v>
       </c>
@@ -5272,7 +5585,7 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="189"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="8" t="s">
         <v>100</v>
       </c>
@@ -5287,7 +5600,7 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="189"/>
+      <c r="B67" s="181"/>
       <c r="C67" s="8" t="s">
         <v>101</v>
       </c>
@@ -5302,7 +5615,7 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="189"/>
+      <c r="B68" s="181"/>
       <c r="C68" s="8" t="s">
         <v>102</v>
       </c>
@@ -5317,7 +5630,7 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="189"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="8" t="s">
         <v>103</v>
       </c>
@@ -5332,7 +5645,7 @@
       </c>
     </row>
     <row r="70" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="189"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="8" t="s">
         <v>104</v>
       </c>
@@ -5347,7 +5660,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="189"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="8" t="s">
         <v>105</v>
       </c>
@@ -5362,7 +5675,7 @@
       </c>
     </row>
     <row r="72" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="189"/>
+      <c r="B72" s="181"/>
       <c r="C72" s="7" t="s">
         <v>191</v>
       </c>
@@ -5376,7 +5689,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="189"/>
+      <c r="B73" s="181"/>
       <c r="C73" s="7" t="s">
         <v>85</v>
       </c>
@@ -5387,7 +5700,7 @@
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="189"/>
+      <c r="B74" s="181"/>
       <c r="C74" s="7" t="s">
         <v>87</v>
       </c>
@@ -5398,7 +5711,7 @@
       <c r="F74" s="29"/>
     </row>
     <row r="75" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="189"/>
+      <c r="B75" s="181"/>
       <c r="C75" s="7" t="s">
         <v>192</v>
       </c>
@@ -5409,7 +5722,7 @@
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B76" s="190"/>
+      <c r="B76" s="182"/>
       <c r="C76" s="7" t="s">
         <v>194</v>
       </c>
@@ -5420,7 +5733,7 @@
       <c r="F76" s="29"/>
     </row>
     <row r="77" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="188" t="s">
+      <c r="B77" s="180" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -5436,7 +5749,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="189"/>
+      <c r="B78" s="181"/>
       <c r="C78" s="7" t="s">
         <v>134</v>
       </c>
@@ -5450,7 +5763,7 @@
       </c>
     </row>
     <row r="79" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="189"/>
+      <c r="B79" s="181"/>
       <c r="C79" s="7" t="s">
         <v>135</v>
       </c>
@@ -5464,7 +5777,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B80" s="189"/>
+      <c r="B80" s="181"/>
       <c r="C80" s="7" t="s">
         <v>136</v>
       </c>
@@ -5478,7 +5791,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B81" s="189"/>
+      <c r="B81" s="181"/>
       <c r="C81" s="7" t="s">
         <v>137</v>
       </c>
@@ -5492,7 +5805,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B82" s="189"/>
+      <c r="B82" s="181"/>
       <c r="C82" s="7" t="s">
         <v>138</v>
       </c>
@@ -5506,7 +5819,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B83" s="189"/>
+      <c r="B83" s="181"/>
       <c r="C83" s="7" t="s">
         <v>139</v>
       </c>
@@ -5520,7 +5833,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B84" s="189"/>
+      <c r="B84" s="181"/>
       <c r="C84" s="7" t="s">
         <v>140</v>
       </c>
@@ -5534,7 +5847,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B85" s="189"/>
+      <c r="B85" s="181"/>
       <c r="C85" s="7" t="s">
         <v>141</v>
       </c>
@@ -5548,7 +5861,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B86" s="189"/>
+      <c r="B86" s="181"/>
       <c r="C86" s="7" t="s">
         <v>142</v>
       </c>
@@ -5562,7 +5875,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="189"/>
+      <c r="B87" s="181"/>
       <c r="C87" s="7" t="s">
         <v>143</v>
       </c>
@@ -5573,7 +5886,7 @@
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B88" s="189"/>
+      <c r="B88" s="181"/>
       <c r="C88" s="7" t="s">
         <v>144</v>
       </c>
@@ -5587,7 +5900,7 @@
       </c>
     </row>
     <row r="89" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="189"/>
+      <c r="B89" s="181"/>
       <c r="C89" s="7" t="s">
         <v>84</v>
       </c>
@@ -5598,7 +5911,7 @@
       <c r="F89" s="29"/>
     </row>
     <row r="90" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B90" s="189"/>
+      <c r="B90" s="181"/>
       <c r="C90" s="7" t="s">
         <v>145</v>
       </c>
@@ -5609,7 +5922,7 @@
       <c r="F90" s="29"/>
     </row>
     <row r="91" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="191"/>
+      <c r="B91" s="183"/>
       <c r="C91" s="13" t="s">
         <v>146</v>
       </c>
@@ -5827,7 +6140,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="180" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -5838,7 +6151,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="189"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="7" t="s">
         <v>118</v>
       </c>
@@ -5847,7 +6160,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="189"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="7" t="s">
         <v>119</v>
       </c>
@@ -5856,7 +6169,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="189"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="7" t="s">
         <v>120</v>
       </c>
@@ -5865,7 +6178,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="189"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="7" t="s">
         <v>121</v>
       </c>
@@ -5874,7 +6187,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="189"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="7" t="s">
         <v>122</v>
       </c>
@@ -5883,7 +6196,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="189"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="7" t="s">
         <v>123</v>
       </c>
@@ -5895,7 +6208,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="190"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="7" t="s">
         <v>124</v>
       </c>
@@ -5904,7 +6217,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="180" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -5915,7 +6228,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="189"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="7" t="s">
         <v>207</v>
       </c>
@@ -5924,7 +6237,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="189"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="7" t="s">
         <v>208</v>
       </c>
@@ -5933,7 +6246,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="189"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="7" t="s">
         <v>209</v>
       </c>
@@ -5942,7 +6255,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="189"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="7" t="s">
         <v>163</v>
       </c>
@@ -5951,7 +6264,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="189"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="7" t="s">
         <v>164</v>
       </c>
@@ -5960,7 +6273,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="189"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="7" t="s">
         <v>210</v>
       </c>
@@ -5969,7 +6282,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="189"/>
+      <c r="B18" s="181"/>
       <c r="C18" s="7" t="s">
         <v>165</v>
       </c>
@@ -5978,7 +6291,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="189"/>
+      <c r="B19" s="181"/>
       <c r="C19" s="7" t="s">
         <v>166</v>
       </c>
@@ -5987,7 +6300,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="189"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="7" t="s">
         <v>167</v>
       </c>
@@ -5996,7 +6309,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="189"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="7" t="s">
         <v>168</v>
       </c>
@@ -6005,7 +6318,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="189"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="7" t="s">
         <v>169</v>
       </c>
@@ -6014,7 +6327,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="189"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
@@ -6023,7 +6336,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="189"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="7" t="s">
         <v>170</v>
       </c>
@@ -6032,7 +6345,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="189"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="7" t="s">
         <v>171</v>
       </c>
@@ -6041,7 +6354,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="189"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="7" t="s">
         <v>172</v>
       </c>
@@ -6050,7 +6363,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="190"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="7" t="s">
         <v>173</v>
       </c>
@@ -6059,7 +6372,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="180" t="s">
         <v>200</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -6070,7 +6383,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="189"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="7" t="s">
         <v>35</v>
       </c>
@@ -6079,7 +6392,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="189"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
@@ -6088,7 +6401,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="189"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="7" t="s">
         <v>37</v>
       </c>
@@ -6097,7 +6410,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="189"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
@@ -6106,7 +6419,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="189"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
@@ -6115,7 +6428,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="189"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="7" t="s">
         <v>40</v>
       </c>
@@ -6124,7 +6437,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="189"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
@@ -6133,7 +6446,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="189"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="7" t="s">
         <v>50</v>
       </c>
@@ -6142,7 +6455,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="189"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
@@ -6151,7 +6464,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="189"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="7" t="s">
         <v>52</v>
       </c>
@@ -6160,7 +6473,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="189"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="7" t="s">
         <v>53</v>
       </c>
@@ -6169,7 +6482,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="189"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="7" t="s">
         <v>54</v>
       </c>
@@ -6178,7 +6491,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="190"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="7" t="s">
         <v>55</v>
       </c>
@@ -6187,7 +6500,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="180" t="s">
         <v>201</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -6198,7 +6511,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="189"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="7" t="s">
         <v>51</v>
       </c>
@@ -6207,7 +6520,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="189"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="7" t="s">
         <v>63</v>
       </c>
@@ -6216,7 +6529,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="189"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="7" t="s">
         <v>64</v>
       </c>
@@ -6225,7 +6538,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="189"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="7" t="s">
         <v>65</v>
       </c>
@@ -6234,7 +6547,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="189"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="7" t="s">
         <v>66</v>
       </c>
@@ -6243,7 +6556,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="189"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="7" t="s">
         <v>67</v>
       </c>
@@ -6252,7 +6565,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="189"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="7" t="s">
         <v>68</v>
       </c>
@@ -6261,7 +6574,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="189"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="7" t="s">
         <v>69</v>
       </c>
@@ -6270,7 +6583,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="189"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
@@ -6279,7 +6592,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="189"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="7" t="s">
         <v>81</v>
       </c>
@@ -6288,7 +6601,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="189"/>
+      <c r="B53" s="181"/>
       <c r="C53" s="7" t="s">
         <v>82</v>
       </c>
@@ -6297,7 +6610,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="189"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="7" t="s">
         <v>83</v>
       </c>
@@ -6306,7 +6619,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="189"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="7" t="s">
         <v>84</v>
       </c>
@@ -6315,7 +6628,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="189"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="7" t="s">
         <v>85</v>
       </c>
@@ -6324,7 +6637,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="189"/>
+      <c r="B57" s="181"/>
       <c r="C57" s="7" t="s">
         <v>86</v>
       </c>
@@ -6333,7 +6646,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="190"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="7" t="s">
         <v>87</v>
       </c>
@@ -6342,7 +6655,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="188" t="s">
+      <c r="B59" s="180" t="s">
         <v>202</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -6353,7 +6666,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="189"/>
+      <c r="B60" s="181"/>
       <c r="C60" s="8" t="s">
         <v>96</v>
       </c>
@@ -6362,7 +6675,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="189"/>
+      <c r="B61" s="181"/>
       <c r="C61" s="8" t="s">
         <v>97</v>
       </c>
@@ -6371,7 +6684,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="189"/>
+      <c r="B62" s="181"/>
       <c r="C62" s="8" t="s">
         <v>98</v>
       </c>
@@ -6380,7 +6693,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="189"/>
+      <c r="B63" s="181"/>
       <c r="C63" s="8" t="s">
         <v>99</v>
       </c>
@@ -6389,7 +6702,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="189"/>
+      <c r="B64" s="181"/>
       <c r="C64" s="8" t="s">
         <v>100</v>
       </c>
@@ -6398,7 +6711,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="189"/>
+      <c r="B65" s="181"/>
       <c r="C65" s="8" t="s">
         <v>101</v>
       </c>
@@ -6407,7 +6720,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="189"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="8" t="s">
         <v>102</v>
       </c>
@@ -6416,7 +6729,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="189"/>
+      <c r="B67" s="181"/>
       <c r="C67" s="8" t="s">
         <v>103</v>
       </c>
@@ -6425,7 +6738,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="189"/>
+      <c r="B68" s="181"/>
       <c r="C68" s="8" t="s">
         <v>104</v>
       </c>
@@ -6434,7 +6747,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="189"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="8" t="s">
         <v>105</v>
       </c>
@@ -6443,7 +6756,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="189"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="7" t="s">
         <v>191</v>
       </c>
@@ -6452,7 +6765,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="189"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="7" t="s">
         <v>85</v>
       </c>
@@ -6461,7 +6774,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="189"/>
+      <c r="B72" s="181"/>
       <c r="C72" s="7" t="s">
         <v>87</v>
       </c>
@@ -6470,7 +6783,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="189"/>
+      <c r="B73" s="181"/>
       <c r="C73" s="7" t="s">
         <v>192</v>
       </c>
@@ -6479,7 +6792,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="189"/>
+      <c r="B74" s="181"/>
       <c r="C74" s="7" t="s">
         <v>193</v>
       </c>
@@ -6488,7 +6801,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="190"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Subscription\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874AB52E-920F-46A3-9BFB-761E7A795A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78AF596-2B82-4501-B567-9ED2AA68BD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5B2F1A05-902E-44E1-BBBE-A58D9230A467}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04oct'!$B$2:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'04oct'!$B$2:$H$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="428">
   <si>
     <t xml:space="preserve"> Task Description                         Status     </t>
   </si>
@@ -936,18 +936,12 @@
     <t>Products Display</t>
   </si>
   <si>
-    <t>Displaying the selectd products in the body of page  along with Details and Images</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adding to Wish List </t>
   </si>
   <si>
     <t xml:space="preserve">Add to Cart </t>
   </si>
   <si>
-    <t>Displaying rating  or Likes</t>
-  </si>
-  <si>
     <t>Brand - Names for Filters</t>
   </si>
   <si>
@@ -975,12 +969,6 @@
     <t>Product DetailView</t>
   </si>
   <si>
-    <t>About Product</t>
-  </si>
-  <si>
-    <t>Displaying About the product in paragraph view</t>
-  </si>
-  <si>
     <t>Similar Prodcuts Div</t>
   </si>
   <si>
@@ -1077,15 +1065,6 @@
     <t xml:space="preserve"> Adding Fucntionality to the My Subscriptions Button , redirecting to the Mysubscriptions Page  with showing the Subscriptions of the user  </t>
   </si>
   <si>
-    <t>Designing the Cart  Page for showing the cart-items of respective user</t>
-  </si>
-  <si>
-    <t>Getting the Products stored in the Cart of respective user</t>
-  </si>
-  <si>
-    <t>integrating the cart items to the cart-Ui for displaying</t>
-  </si>
-  <si>
     <t>Getting the Subscriptions of the respective  user fro DB</t>
   </si>
   <si>
@@ -1155,33 +1134,15 @@
     <t>after clicking  the wishlist button , the product have to add to the wishlist of respective user</t>
   </si>
   <si>
-    <t>Wish List</t>
-  </si>
-  <si>
-    <t>Designing the Wish List page to the items in the wishlist of user</t>
-  </si>
-  <si>
-    <t>Adding the selected product to the wishlist table of respective user</t>
-  </si>
-  <si>
     <t>Quantity Selection of Product</t>
   </si>
   <si>
     <t xml:space="preserve">Selecting the quantity of each product , and  price of particular quantity should be displayed in the price sending the qty to the cart if added to cart  or Subscription Page </t>
   </si>
   <si>
-    <t>Fucntionality of the button  to add the item to the cart</t>
-  </si>
-  <si>
     <t>Adding the selected item to cart and storing in the  DB of the user</t>
   </si>
   <si>
-    <t xml:space="preserve">Displaying the rating of the product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">getting the rating of the particualr products </t>
-  </si>
-  <si>
     <t>Designing the product detail view page for Displaying the image and details of Products(name, price, quantity)</t>
   </si>
   <si>
@@ -1197,9 +1158,6 @@
     <t>adding item to the  cart if cart button is clicked</t>
   </si>
   <si>
-    <t xml:space="preserve">adding item to the  cart and redirecting to the subcription page for the subscriptions selection of particular  product along with the selected wuantity and Price </t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
@@ -1224,15 +1182,9 @@
     <t>Saving the edited data of user data into the Database</t>
   </si>
   <si>
-    <t>Designing the subscription page for selecting the subscriptions of the respective product</t>
-  </si>
-  <si>
     <t xml:space="preserve">Designing the Home Page </t>
   </si>
   <si>
-    <t>PopUp</t>
-  </si>
-  <si>
     <t>Displaying the Respective Product with Image with selected quantity along with Price  and Types of Subscription i.e; (Single day, Weekly, Monthly) with their respective prices after clicking Subscription button provided on product display page</t>
   </si>
   <si>
@@ -1263,15 +1215,9 @@
     <t>Location Page</t>
   </si>
   <si>
-    <t>After selecting type of subscription for the product the user have to enter the delivery address, By filling the necessary fields such as house no ,  buliding, Landmark an the type of address (Home, work, other)</t>
-  </si>
-  <si>
     <t>User Delivery Location Storage</t>
   </si>
   <si>
-    <t>The Delivery Address Mentioned by the use has to store in the database for the purspose of giving it to the delivary man</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precise location </t>
   </si>
   <si>
@@ -1290,9 +1236,6 @@
     <t xml:space="preserve">Paymnet page for the user for which type of transaction he /her wants to make </t>
   </si>
   <si>
-    <t xml:space="preserve">Payment </t>
-  </si>
-  <si>
     <t>Razorpay Payment details</t>
   </si>
   <si>
@@ -1314,18 +1257,12 @@
     <t>Create an adress table by using the USerID as Foreign key to store the addresses of the users</t>
   </si>
   <si>
-    <t xml:space="preserve">Creating and API for inserting the category and also for retriecving the categories with Images </t>
-  </si>
-  <si>
     <t>Brands</t>
   </si>
   <si>
     <t xml:space="preserve">Creating and API for inserting the Brands and also for retrieving the Brands with Images </t>
   </si>
   <si>
-    <t xml:space="preserve">Creating and API for inserting the Products and also for retrieving the Products with Images </t>
-  </si>
-  <si>
     <t>Retrieving subscriptions data to show in the subscription popup for the respecgtive products</t>
   </si>
   <si>
@@ -1354,6 +1291,165 @@
   </si>
   <si>
     <t xml:space="preserve">Generating the payment &amp; Subscription Summary after the successful or Failed payment o f subscription in PDF format   </t>
+  </si>
+  <si>
+    <t>Start-Date</t>
+  </si>
+  <si>
+    <t>End-Date</t>
+  </si>
+  <si>
+    <t>Design a location page for selecting the location on the google  map and entering sufficient the details of address</t>
+  </si>
+  <si>
+    <t>Add Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storing the New address created by the user </t>
+  </si>
+  <si>
+    <t>Edit Address</t>
+  </si>
+  <si>
+    <t>Editing the saved Address by the user ID and the Address ID</t>
+  </si>
+  <si>
+    <t>The Delivery Address Mentioned by the user has to store in the database for the purspose of giving it to the delivary man</t>
+  </si>
+  <si>
+    <t>Get Address</t>
+  </si>
+  <si>
+    <t>Getting the Saved Addresses of the particualr user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Details Storing </t>
+  </si>
+  <si>
+    <t>Saving the Order details into Order table and  into the Order Items table along with  the Neccesary Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish List </t>
+  </si>
+  <si>
+    <t>Design the Wish List Page to  displa the wish list items of the respective user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting the Selected Product into the Wish List table by UserId and ProductId and Added Date </t>
+  </si>
+  <si>
+    <t>Deleting the Selected Product from Wish List , if  it was Deleted by user</t>
+  </si>
+  <si>
+    <t>Getting the List of Products in the Wish List of respective user  to display it in the wish list</t>
+  </si>
+  <si>
+    <t>integrating the List of products recived from API to display it in the Wish List page , and adding the functionalities in it like( deleting the product from wish list , buy and add to cart  etc..)</t>
+  </si>
+  <si>
+    <t>Design the Cart Page to  displa the Cart items of the respective user</t>
+  </si>
+  <si>
+    <t>Inserting the Selected Product into the Cart table by UserId and ProductId and Added Date and with the Quantity or Size of product selected before  Adding it to the Cart</t>
+  </si>
+  <si>
+    <t>Deleting the Selected Product from Cart, if  it was Deleted by user</t>
+  </si>
+  <si>
+    <t>Getting the List of Products in the Cart table of respective user  to display it in the Cart-UI</t>
+  </si>
+  <si>
+    <t>integrating the List of products recived from API to display it in the Cart page , and adding the functionalities in it like( deleting the product from Cart , buy and add to WishList  etc..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting the new category items  into category table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating and API for  getting  the list of categories with Images </t>
+  </si>
+  <si>
+    <t>Fucntionality of the button  to add the item to the cart with the size selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API for inserting the New  Products into the products  table </t>
+  </si>
+  <si>
+    <t>API for Getting the List of Products from the table to show it in the products Page</t>
+  </si>
+  <si>
+    <t>Displaying the products in the body of page  along with Details and Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add  to Cart </t>
+  </si>
+  <si>
+    <t>By clicking ther Add to cart buttonn , the product with selected size have to be inserted into the cart table with respective userId and ProductId along with selected size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Clicking the subscription Redirecting to the subcription page along with the product   with the selected quantity and Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">categories Button </t>
+  </si>
+  <si>
+    <t>Adding Fucntionality to the buttons in the Categories , so that the  particular Categories of products ahev to be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting Fucntionality </t>
+  </si>
+  <si>
+    <t>Adding functionality to the Sorting of products as (Price -Low to High , viceversa…etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratings Display </t>
+  </si>
+  <si>
+    <t>Getting the Ratings of the products to display it in the Rating Icon</t>
+  </si>
+  <si>
+    <t>Products Filter Side-bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing the products side filter bar  to provide the filter options </t>
+  </si>
+  <si>
+    <t>Brand Filter</t>
+  </si>
+  <si>
+    <t>Displaying the products in the body of page  by Brand filter selected by user along with details and Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Filter </t>
+  </si>
+  <si>
+    <t>Displaying the products in the body of page  by Size filter selected by user along with details and Images</t>
+  </si>
+  <si>
+    <t>Displaying the Rating of product  in the rating field</t>
+  </si>
+  <si>
+    <t>have to check</t>
+  </si>
+  <si>
+    <t>Product insert</t>
+  </si>
+  <si>
+    <t>List Of Products</t>
+  </si>
+  <si>
+    <t>Inserting the Review/ Comment of product into the review/rating table by userId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review along with Rating </t>
+  </si>
+  <si>
+    <t>Getting the Reviews/ Commenst of  products from the table of the by the Product Id</t>
+  </si>
+  <si>
+    <t>Subscription Pop-Up</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1489,8 +1585,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2032,12 +2152,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2165,9 +2324,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2177,9 +2333,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2201,9 +2354,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2234,9 +2384,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2246,9 +2393,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2258,9 +2402,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2276,9 +2417,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,9 +2459,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2372,9 +2507,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2402,14 +2534,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2427,14 +2557,11 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2469,99 +2596,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2604,6 +2638,167 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2927,10 +3122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H93"/>
+  <dimension ref="B1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.3"/>
@@ -2939,29 +3134,35 @@
     <col min="3" max="3" width="54.5546875" style="31" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="32" customWidth="1"/>
     <col min="5" max="5" width="70.44140625" style="35" customWidth="1"/>
-    <col min="6" max="7" width="37.21875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="20" customWidth="1"/>
+    <col min="6" max="8" width="37.21875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="51" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="150"/>
-      <c r="C2" s="151" t="s">
+    <row r="1" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="136"/>
+      <c r="C2" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="152" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="114" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="165" t="s">
+      <c r="G2" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="91.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="186" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -2973,18 +3174,21 @@
       <c r="E3" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="166"/>
+      <c r="F3" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="164" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="155">
+        <v>45197</v>
+      </c>
+      <c r="I3" s="155">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="187"/>
       <c r="C4" s="40" t="s">
         <v>212</v>
       </c>
@@ -2994,15 +3198,21 @@
       <c r="E4" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="166"/>
+      <c r="F4" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="155">
+        <v>45188</v>
+      </c>
+      <c r="I4" s="155">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="187"/>
       <c r="C5" s="40" t="s">
         <v>241</v>
       </c>
@@ -3012,15 +3222,21 @@
       <c r="E5" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="166"/>
+      <c r="F5" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I5" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="187"/>
       <c r="C6" s="40" t="s">
         <v>239</v>
       </c>
@@ -3030,87 +3246,117 @@
       <c r="E6" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="H6" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="166"/>
+      <c r="F6" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="155">
+        <v>45191</v>
+      </c>
+      <c r="I6" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="187"/>
       <c r="C7" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>226</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
+        <v>291</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="155">
+        <v>45190</v>
+      </c>
+      <c r="I7" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="187"/>
       <c r="C8" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D8" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="166"/>
+      <c r="F8" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="155">
+        <v>45192</v>
+      </c>
+      <c r="I8" s="155">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="187"/>
       <c r="C9" s="40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
+        <v>294</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="155">
+        <v>45192</v>
+      </c>
+      <c r="I9" s="155">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="187"/>
       <c r="C10" s="40" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>227</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="166"/>
+        <v>296</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="155">
+        <v>45193</v>
+      </c>
+      <c r="I10" s="155">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="187"/>
       <c r="C11" s="40" t="s">
         <v>117</v>
       </c>
@@ -3120,34 +3366,45 @@
       <c r="E11" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="166"/>
+      <c r="F11" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I11" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="187"/>
       <c r="C12" s="40" t="s">
         <v>228</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="166"/>
+        <v>289</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="155">
+        <v>45195</v>
+      </c>
+      <c r="I12" s="155">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="187"/>
       <c r="C13" s="40" t="s">
         <v>240</v>
       </c>
@@ -3157,13 +3414,21 @@
       <c r="E13" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="166"/>
+      <c r="F13" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="155">
+        <v>45196</v>
+      </c>
+      <c r="I13" s="155">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="187"/>
       <c r="C14" s="40" t="s">
         <v>120</v>
       </c>
@@ -3173,1416 +3438,2092 @@
       <c r="E14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="155">
+        <v>45196</v>
+      </c>
+      <c r="I14" s="155">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="188"/>
+      <c r="C15" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="155">
+        <v>45203</v>
+      </c>
+      <c r="I15" s="155">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="189"/>
+      <c r="C16" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+    </row>
+    <row r="17" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="176" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="168" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I17" s="155">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="177"/>
+      <c r="C18" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="164" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+    </row>
+    <row r="19" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="178"/>
+      <c r="C19" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" s="155">
+        <v>45193</v>
+      </c>
+      <c r="I19" s="155">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="178"/>
+      <c r="C20" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="F20" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+    </row>
+    <row r="21" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="178"/>
+      <c r="C21" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+    </row>
+    <row r="22" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="178"/>
+      <c r="C22" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="155">
+        <v>45204</v>
+      </c>
+      <c r="I22" s="155">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="178"/>
+      <c r="C23" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="98"/>
+      <c r="G23" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+    </row>
+    <row r="24" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="178"/>
+      <c r="C24" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="F24" s="103"/>
+      <c r="G24" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+    </row>
+    <row r="25" spans="2:9" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="178"/>
+      <c r="C25" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="209" t="s">
+        <v>421</v>
+      </c>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+    </row>
+    <row r="26" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="178"/>
+      <c r="C26" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="209" t="s">
+        <v>421</v>
+      </c>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+    </row>
+    <row r="27" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="178"/>
+      <c r="C27" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="209" t="s">
+        <v>421</v>
+      </c>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+    </row>
+    <row r="28" spans="2:9" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="178"/>
+      <c r="C28" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="F28" s="103"/>
+      <c r="G28" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+    </row>
+    <row r="29" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="178"/>
+      <c r="C29" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="103"/>
+      <c r="G29" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+    </row>
+    <row r="30" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="178"/>
+      <c r="C30" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+    </row>
+    <row r="31" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="178"/>
+      <c r="C31" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+    </row>
+    <row r="32" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="178"/>
+      <c r="C32" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+    </row>
+    <row r="33" spans="2:9" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="178"/>
+      <c r="C33" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="F33" s="103"/>
+      <c r="G33" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+    </row>
+    <row r="34" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="178"/>
+      <c r="C34" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="155">
+        <v>45194</v>
+      </c>
+      <c r="I34" s="155">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="179"/>
+      <c r="C35" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="F35" s="103"/>
+      <c r="G35" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+    </row>
+    <row r="36" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="179"/>
+      <c r="C36" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" s="103"/>
+      <c r="G36" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+    </row>
+    <row r="37" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="179"/>
+      <c r="C37" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="103"/>
+      <c r="G37" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+    </row>
+    <row r="38" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="179"/>
+      <c r="C38" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="103"/>
+      <c r="G38" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+    </row>
+    <row r="39" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="179"/>
+      <c r="C39" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+    </row>
+    <row r="40" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="190"/>
+      <c r="C40" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="167" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="155">
+        <v>45194</v>
+      </c>
+      <c r="I40" s="155">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="103"/>
+      <c r="G41" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I41" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="191"/>
+      <c r="C42" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="103"/>
+      <c r="G42" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="155">
+        <v>45191</v>
+      </c>
+      <c r="I42" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="184"/>
+      <c r="C43" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="H14" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="167"/>
-      <c r="C15" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="45" t="s">
+      <c r="F43" s="103"/>
+      <c r="G43" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I43" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="184"/>
+      <c r="C44" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="103"/>
+      <c r="G44" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I44" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="184"/>
+      <c r="C45" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="168"/>
-      <c r="C16" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="E45" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="103"/>
+      <c r="G45" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I45" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="184"/>
+      <c r="C46" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="98"/>
+      <c r="G46" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" s="155">
+        <v>45194</v>
+      </c>
+      <c r="I46" s="155">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="184"/>
+      <c r="C47" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" s="98"/>
+      <c r="G47" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="155">
+        <v>45194</v>
+      </c>
+      <c r="I47" s="155">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="184"/>
+      <c r="C48" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="156" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="53" t="s">
+      <c r="E48" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="F48" s="103"/>
+      <c r="G48" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H48" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I48" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="184"/>
+      <c r="C49" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="F49" s="103"/>
+      <c r="G49" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+    </row>
+    <row r="50" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="184"/>
+      <c r="C50" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="169"/>
-      <c r="C18" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="53" t="s">
+      <c r="E50" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="F50" s="103"/>
+      <c r="G50" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I50" s="155">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="185"/>
+      <c r="C51" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" s="98"/>
+      <c r="G51" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+    </row>
+    <row r="52" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="185"/>
+      <c r="C52" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="103"/>
+      <c r="G52" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+    </row>
+    <row r="53" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="192"/>
+      <c r="C53" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="111" t="s">
+      <c r="E53" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="F53" s="103"/>
+      <c r="G53" s="167" t="s">
+        <v>269</v>
+      </c>
+      <c r="H53" s="155">
+        <v>45189</v>
+      </c>
+      <c r="I53" s="155">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="192"/>
+      <c r="C54" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F54" s="98"/>
+      <c r="G54" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="155">
+        <v>45197</v>
+      </c>
+      <c r="I54" s="155">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="192"/>
+      <c r="C55" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="F55" s="99"/>
+      <c r="G55" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="155">
+        <v>45173</v>
+      </c>
+      <c r="I55" s="155">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="185"/>
+      <c r="C56" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="F56" s="99"/>
+      <c r="G56" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H56" s="155">
+        <v>45197</v>
+      </c>
+      <c r="I56" s="155">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="193" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="168" t="s">
+        <v>270</v>
+      </c>
+      <c r="H57" s="155">
+        <v>45201</v>
+      </c>
+      <c r="I57" s="155">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="206"/>
+      <c r="C58" s="207" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" s="208" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="F58" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="G58" s="168" t="s">
+        <v>270</v>
+      </c>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+    </row>
+    <row r="59" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="194"/>
+      <c r="C59" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="F59" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G59" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H59" s="155">
+        <v>45202</v>
+      </c>
+      <c r="I59" s="155">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="194"/>
+      <c r="C60" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="F60" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+    </row>
+    <row r="61" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="194"/>
+      <c r="C61" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="F61" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G61" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H61" s="155">
+        <v>45202</v>
+      </c>
+      <c r="I61" s="155">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="194"/>
+      <c r="C62" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="F62" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+    </row>
+    <row r="63" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="194"/>
+      <c r="C63" s="92" t="s">
+        <v>418</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="F63" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H63" s="155"/>
+      <c r="I63" s="155"/>
+    </row>
+    <row r="64" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="194"/>
+      <c r="C64" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="F64" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G64" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+    </row>
+    <row r="65" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="194"/>
+      <c r="C65" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="F65" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G65" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H65" s="155"/>
+      <c r="I65" s="155"/>
+    </row>
+    <row r="66" spans="2:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="194"/>
+      <c r="C66" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G66" s="168" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+    </row>
+    <row r="67" spans="2:9" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="194"/>
+      <c r="C67" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H67" s="155"/>
+      <c r="I67" s="155"/>
+    </row>
+    <row r="68" spans="2:9" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="194"/>
+      <c r="C68" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="F68" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G68" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+    </row>
+    <row r="69" spans="2:9" ht="93.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="194"/>
+      <c r="C69" s="92" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G69" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+    </row>
+    <row r="70" spans="2:9" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="194"/>
+      <c r="C70" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="F70" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G70" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H70" s="155">
+        <v>45202</v>
+      </c>
+      <c r="I70" s="155">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="194"/>
+      <c r="C71" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="F71" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G71" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="155">
+        <v>45203</v>
+      </c>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="2:9" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="194"/>
+      <c r="C72" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="F72" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G72" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" s="155"/>
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="2:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="195"/>
+      <c r="C73" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" s="96" t="s">
+        <v>324</v>
+      </c>
+      <c r="F73" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="G73" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H73" s="155"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="2:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="195"/>
+      <c r="C74" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="D74" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="F74" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" s="155"/>
+      <c r="I74" s="76"/>
+    </row>
+    <row r="75" spans="2:9" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="196"/>
+      <c r="C75" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="D75" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="F75" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" s="155"/>
+      <c r="I75" s="76"/>
+    </row>
+    <row r="76" spans="2:9" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+    </row>
+    <row r="77" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="185"/>
+      <c r="C77" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="F77" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G77" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+    </row>
+    <row r="78" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="185"/>
+      <c r="C78" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="F78" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G78" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+    </row>
+    <row r="79" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="185"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+    </row>
+    <row r="80" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="185"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+    </row>
+    <row r="81" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="185"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+    </row>
+    <row r="82" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="185"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="170"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+    </row>
+    <row r="83" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="185"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="110"/>
+      <c r="I83" s="110"/>
+    </row>
+    <row r="84" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="185"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
+    </row>
+    <row r="85" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="185"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="110"/>
+    </row>
+    <row r="86" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="185"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
+    </row>
+    <row r="87" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="185"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="170"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
+    </row>
+    <row r="88" spans="2:9" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="185"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="170"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
+    </row>
+    <row r="89" spans="2:9" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="185"/>
+      <c r="C89" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F89" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="G89" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+    </row>
+    <row r="90" spans="2:9" ht="141" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="171" t="s">
+        <v>427</v>
+      </c>
+      <c r="C90" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" s="114" t="s">
+        <v>339</v>
+      </c>
+      <c r="F90" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" s="156">
+        <v>45204</v>
+      </c>
+      <c r="I90" s="156">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="172"/>
+      <c r="C91" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G91" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H91" s="156">
+        <v>45204</v>
+      </c>
+      <c r="I91" s="156">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="173"/>
+      <c r="C92" s="118" t="s">
+        <v>341</v>
+      </c>
+      <c r="D92" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="F92" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="156">
+        <v>45204</v>
+      </c>
+      <c r="I92" s="156">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="174"/>
+      <c r="C93" s="118" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="112" t="s">
+        <v>367</v>
+      </c>
+      <c r="F93" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H93" s="156">
+        <v>45204</v>
+      </c>
+      <c r="I93" s="156">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="175"/>
+      <c r="C94" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="G18" s="55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="157"/>
-      <c r="C19" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="157"/>
-      <c r="C20" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="157"/>
-      <c r="C21" s="56" t="s">
+      <c r="D94" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="E94" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G94" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H94" s="156">
+        <v>45204</v>
+      </c>
+      <c r="I94" s="156">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="200" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="117" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="114" t="s">
+        <v>369</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G95" s="162" t="s">
+        <v>276</v>
+      </c>
+      <c r="H95" s="115"/>
+      <c r="I95" s="115"/>
+    </row>
+    <row r="96" spans="2:9" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="200"/>
+      <c r="C96" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="D96" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G96" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H96" s="163"/>
+      <c r="I96" s="163"/>
+    </row>
+    <row r="97" spans="2:9" ht="89.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="174"/>
+      <c r="C97" s="117" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" s="114" t="s">
+        <v>386</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G97" s="162" t="s">
+        <v>276</v>
+      </c>
+      <c r="H97" s="116"/>
+      <c r="I97" s="116"/>
+    </row>
+    <row r="98" spans="2:9" ht="167.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="201"/>
+      <c r="C98" s="118" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="E98" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="F98" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G98" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H98" s="116"/>
+      <c r="I98" s="116"/>
+    </row>
+    <row r="99" spans="2:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="173"/>
+      <c r="C99" s="118" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="F21" s="111" t="s">
+      <c r="E99" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="F99" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+    </row>
+    <row r="100" spans="2:9" ht="64.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="175"/>
+      <c r="C100" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="G21" s="59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="157"/>
-      <c r="C22" s="56" t="s">
+      <c r="D100" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="E100" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="F100" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G100" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H100" s="122"/>
+      <c r="I100" s="122"/>
+    </row>
+    <row r="101" spans="2:9" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="176" t="s">
+        <v>347</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="157"/>
-      <c r="C23" s="56" t="s">
+      <c r="E101" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H101" s="139" t="s">
+        <v>276</v>
+      </c>
+      <c r="I101" s="139" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="122.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="177"/>
+      <c r="C102" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="D102" s="124" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G102" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H102" s="157">
+        <v>45205</v>
+      </c>
+      <c r="I102" s="157">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="177"/>
+      <c r="C103" s="158" t="s">
+        <v>378</v>
+      </c>
+      <c r="D103" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" s="160" t="s">
+        <v>379</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G103" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H103" s="157">
+        <v>45209</v>
+      </c>
+      <c r="I103" s="157">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="177"/>
+      <c r="C104" s="158" t="s">
+        <v>380</v>
+      </c>
+      <c r="D104" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E104" s="160" t="s">
+        <v>381</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G104" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="H104" s="157"/>
+      <c r="I104" s="161"/>
+    </row>
+    <row r="105" spans="2:9" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="177"/>
+      <c r="C105" s="158" t="s">
+        <v>383</v>
+      </c>
+      <c r="D105" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" s="160" t="s">
+        <v>384</v>
+      </c>
+      <c r="F105" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G105" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H105" s="157">
+        <v>45209</v>
+      </c>
+      <c r="I105" s="157">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="178"/>
+      <c r="C106" s="127" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="F106" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="H106" s="157">
+        <v>45209</v>
+      </c>
+      <c r="I106" s="157">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="52.8" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="178"/>
+      <c r="C107" s="127" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E107" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" s="123"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="157">
+        <v>45209</v>
+      </c>
+      <c r="I107" s="157">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="52.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="179"/>
+      <c r="C108" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="D108" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="58" t="s">
+      <c r="E108" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="F108" s="129"/>
+      <c r="G108" s="130"/>
+      <c r="H108" s="157">
+        <v>45209</v>
+      </c>
+      <c r="I108" s="157">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="111.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="180" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="144" t="s">
+        <v>354</v>
+      </c>
+      <c r="D109" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="E109" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" s="147"/>
+      <c r="G109" s="148"/>
+      <c r="H109" s="148"/>
+      <c r="I109" s="148"/>
+    </row>
+    <row r="110" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="180"/>
+      <c r="C110" s="131" t="s">
+        <v>356</v>
+      </c>
+      <c r="D110" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="F23" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="157"/>
-      <c r="C24" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="57" t="s">
+      <c r="G110" s="132"/>
+      <c r="H110" s="132"/>
+      <c r="I110" s="132"/>
+    </row>
+    <row r="111" spans="2:9" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="181"/>
+      <c r="C111" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="D111" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="E111" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="F111" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G111" s="134"/>
+      <c r="H111" s="134"/>
+      <c r="I111" s="134"/>
+    </row>
+    <row r="112" spans="2:9" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="181"/>
+      <c r="C112" s="140" t="s">
+        <v>371</v>
+      </c>
+      <c r="D112" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="E112" s="142" t="s">
+        <v>372</v>
+      </c>
+      <c r="F112" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G112" s="143"/>
+      <c r="H112" s="143"/>
+      <c r="I112" s="143"/>
+    </row>
+    <row r="113" spans="2:9" ht="89.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="182"/>
+      <c r="C113" s="135" t="s">
+        <v>373</v>
+      </c>
+      <c r="D113" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="E113" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="F113" s="154" t="s">
+        <v>302</v>
+      </c>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="108"/>
+    </row>
+    <row r="114" spans="2:9" ht="63.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="182"/>
+      <c r="C114" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="E114" s="151" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" s="152"/>
+      <c r="G114" s="153"/>
+      <c r="H114" s="153"/>
+      <c r="I114" s="153"/>
+    </row>
+    <row r="156" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="197" t="s">
+        <v>264</v>
+      </c>
+      <c r="C157" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D157" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="157"/>
-      <c r="C25" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="157"/>
-      <c r="C26" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="F26" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="157"/>
-      <c r="C27" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="H27" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="158"/>
-      <c r="C28" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="158"/>
-      <c r="C29" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="F29" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="158"/>
-      <c r="C30" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="F30" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="158"/>
-      <c r="C31" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="F31" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="158"/>
-      <c r="C32" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="158"/>
-    </row>
-    <row r="34" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="170"/>
-      <c r="C34" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="F34" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="H34" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="162" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="F35" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G35" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="171"/>
-      <c r="C36" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G36" s="70" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="163"/>
-      <c r="C37" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="H37" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="163"/>
-      <c r="C38" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="73" t="s">
+      <c r="E157" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F157" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="H157" s="155">
+        <v>45203</v>
+      </c>
+      <c r="I157" s="156"/>
+    </row>
+    <row r="158" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="197"/>
+      <c r="C158" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="E158" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="F158" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="G158" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="163"/>
-      <c r="C39" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="F39" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="163"/>
-      <c r="C40" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="D40" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="F40" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="70.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="163"/>
-      <c r="C41" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="E41" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="F41" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G41" s="74" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="163"/>
-      <c r="C42" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>382</v>
-      </c>
-      <c r="F42" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G42" s="74" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="163"/>
-      <c r="C43" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="F43" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G43" s="74" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="164"/>
-      <c r="C44" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G44" s="92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="70.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="164"/>
-      <c r="C45" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F45" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G45" s="92" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="172"/>
-      <c r="C46" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="F46" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="172"/>
-      <c r="C47" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="E47" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="G47" s="92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="70.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="172"/>
-      <c r="C48" s="93" t="s">
-        <v>322</v>
-      </c>
-      <c r="D48" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E48" s="94" t="s">
-        <v>323</v>
-      </c>
-      <c r="F48" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="G48" s="92" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="164"/>
-      <c r="C49" s="93" t="s">
-        <v>383</v>
-      </c>
-      <c r="D49" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="F49" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="G49" s="92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="173" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="D50" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="F50" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="G50" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="H50" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="174"/>
-      <c r="C51" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="F51" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G51" s="83" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="174"/>
-      <c r="C52" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="F52" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G52" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="174"/>
-      <c r="C53" s="100" t="s">
-        <v>329</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="F53" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="G53" s="83" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="174"/>
-      <c r="C54" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>328</v>
-      </c>
-      <c r="F54" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G54" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="174"/>
-      <c r="C55" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="82" t="s">
+      <c r="H158" s="155">
+        <v>45203</v>
+      </c>
+      <c r="I158" s="156">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="198"/>
+      <c r="C159" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="D159" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="E159" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="F159" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="F55" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="G55" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="174"/>
-      <c r="C56" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="82" t="s">
-        <v>333</v>
-      </c>
-      <c r="F56" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="83" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="174"/>
-      <c r="C57" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E57" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="G57" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="174"/>
-      <c r="C58" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="F58" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="G58" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="174"/>
-      <c r="C59" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E59" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G59" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="175"/>
-      <c r="C60" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="F60" s="105" t="s">
-        <v>309</v>
-      </c>
-      <c r="G60" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="72" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="175"/>
-      <c r="C61" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="104" t="s">
-        <v>336</v>
-      </c>
-      <c r="F61" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G61" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="176"/>
-      <c r="C62" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="D62" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" s="97" t="s">
-        <v>337</v>
-      </c>
-      <c r="F62" s="98" t="s">
-        <v>309</v>
-      </c>
-      <c r="G62" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="177" t="s">
-        <v>266</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="D63" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="F63" s="110" t="s">
-        <v>283</v>
-      </c>
-      <c r="G63" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="H63" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="177"/>
-      <c r="C64" s="84" t="s">
+      <c r="G159" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H159" s="76"/>
+      <c r="I159" s="76"/>
+    </row>
+    <row r="160" spans="2:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="199"/>
+      <c r="C160" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="E64" s="86" t="s">
+      <c r="D160" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="F64" s="110" t="s">
-        <v>283</v>
-      </c>
-      <c r="G64" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="178"/>
-      <c r="C65" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="E65" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="F65" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G65" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="179"/>
-      <c r="C66" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G66" s="83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="162" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E67" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G67" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="H67" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="163"/>
-      <c r="C68" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="F68" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G68" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="164"/>
-      <c r="C69" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E69" s="94" t="s">
-        <v>342</v>
-      </c>
-      <c r="F69" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G69" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="164"/>
-      <c r="C70" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="D70" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E70" s="94" t="s">
-        <v>343</v>
-      </c>
-      <c r="F70" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G70" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="164"/>
-      <c r="C71" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="D71" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" s="77" t="s">
-        <v>339</v>
-      </c>
-      <c r="F71" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="G71" s="83" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="164"/>
-      <c r="C72" s="93" t="s">
-        <v>271</v>
-      </c>
-      <c r="D72" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" s="94" t="s">
-        <v>340</v>
-      </c>
-      <c r="F72" s="118" t="s">
-        <v>345</v>
-      </c>
-      <c r="G72" s="119" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="141" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="153" t="s">
-        <v>354</v>
-      </c>
-      <c r="C73" s="128" t="s">
-        <v>380</v>
-      </c>
-      <c r="D73" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="E73" s="124" t="s">
-        <v>355</v>
-      </c>
-      <c r="F73" s="125"/>
-      <c r="G73" s="126"/>
-    </row>
-    <row r="74" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="154"/>
-      <c r="C74" s="129" t="s">
-        <v>356</v>
-      </c>
-      <c r="D74" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="E74" s="121" t="s">
-        <v>386</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74" s="127"/>
-    </row>
-    <row r="75" spans="2:8" ht="94.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="154"/>
-      <c r="C75" s="129" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="E75" s="121" t="s">
-        <v>358</v>
-      </c>
-      <c r="F75" s="118" t="s">
-        <v>345</v>
-      </c>
-      <c r="G75" s="127"/>
-    </row>
-    <row r="76" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="154"/>
-      <c r="C76" s="129" t="s">
-        <v>359</v>
-      </c>
-      <c r="D76" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" s="121" t="s">
-        <v>388</v>
-      </c>
-      <c r="F76" s="122"/>
-      <c r="G76" s="127"/>
-    </row>
-    <row r="77" spans="2:8" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="155"/>
-      <c r="C77" s="130" t="s">
-        <v>361</v>
-      </c>
-      <c r="D77" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="E77" s="132" t="s">
-        <v>362</v>
-      </c>
-      <c r="F77" s="133"/>
-      <c r="G77" s="134"/>
-    </row>
-    <row r="78" spans="2:8" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="153" t="s">
-        <v>387</v>
-      </c>
-      <c r="C78" s="128" t="s">
-        <v>389</v>
-      </c>
-      <c r="D78" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="E78" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G78" s="126"/>
-    </row>
-    <row r="79" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="154"/>
-      <c r="C79" s="129" t="s">
-        <v>356</v>
-      </c>
-      <c r="D79" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="E79" s="121" t="s">
-        <v>386</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G79" s="127"/>
-    </row>
-    <row r="80" spans="2:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="154"/>
-      <c r="C80" s="129" t="s">
-        <v>391</v>
-      </c>
-      <c r="D80" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" s="121" t="s">
-        <v>358</v>
-      </c>
-      <c r="F80" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G80" s="127"/>
-    </row>
-    <row r="81" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="154"/>
-      <c r="C81" s="129" t="s">
-        <v>359</v>
-      </c>
-      <c r="D81" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="E81" s="121" t="s">
-        <v>360</v>
-      </c>
-      <c r="F81" s="122"/>
-      <c r="G81" s="127"/>
-    </row>
-    <row r="82" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="155"/>
-      <c r="C82" s="130" t="s">
-        <v>361</v>
-      </c>
-      <c r="D82" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="E82" s="132" t="s">
-        <v>362</v>
-      </c>
-      <c r="F82" s="133"/>
-      <c r="G82" s="134"/>
-    </row>
-    <row r="83" spans="2:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="156" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" s="60" t="s">
-        <v>363</v>
-      </c>
-      <c r="D83" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E83" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G83" s="184" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="169"/>
-      <c r="C84" s="140" t="s">
-        <v>364</v>
-      </c>
-      <c r="D84" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="E84" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F84" s="137"/>
-      <c r="G84" s="138"/>
-    </row>
-    <row r="85" spans="2:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="157"/>
-      <c r="C85" s="141" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="F85" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G85" s="139"/>
-    </row>
-    <row r="86" spans="2:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="157"/>
-      <c r="C86" s="141" t="s">
-        <v>368</v>
-      </c>
-      <c r="D86" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E86" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="F86" s="135"/>
-      <c r="G86" s="139"/>
-    </row>
-    <row r="87" spans="2:7" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="158"/>
-      <c r="C87" s="142" t="s">
-        <v>370</v>
-      </c>
-      <c r="D87" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="E87" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="F87" s="143"/>
-      <c r="G87" s="144"/>
-    </row>
-    <row r="88" spans="2:7" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="159" t="s">
-        <v>374</v>
-      </c>
-      <c r="C88" s="189" t="s">
-        <v>372</v>
-      </c>
-      <c r="D88" s="190" t="s">
-        <v>226</v>
-      </c>
-      <c r="E88" s="191" t="s">
-        <v>373</v>
-      </c>
-      <c r="F88" s="192"/>
-      <c r="G88" s="193"/>
-    </row>
-    <row r="89" spans="2:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="159"/>
-      <c r="C89" s="145" t="s">
-        <v>375</v>
-      </c>
-      <c r="D89" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="E89" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="F89" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G89" s="146"/>
-    </row>
-    <row r="90" spans="2:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="160"/>
-      <c r="C90" s="147" t="s">
-        <v>377</v>
-      </c>
-      <c r="D90" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="E90" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="F90" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G90" s="148"/>
-    </row>
-    <row r="91" spans="2:7" ht="164.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="160"/>
-      <c r="C91" s="185" t="s">
-        <v>392</v>
-      </c>
-      <c r="D91" s="186" t="s">
-        <v>227</v>
-      </c>
-      <c r="E91" s="187" t="s">
-        <v>393</v>
-      </c>
-      <c r="F91" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G91" s="188"/>
-    </row>
-    <row r="92" spans="2:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="161"/>
-      <c r="C92" s="149" t="s">
-        <v>394</v>
-      </c>
-      <c r="D92" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="E92" s="90" t="s">
-        <v>395</v>
-      </c>
-      <c r="F92" s="199" t="s">
-        <v>309</v>
-      </c>
-      <c r="G92" s="117"/>
-    </row>
-    <row r="93" spans="2:7" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="161"/>
-      <c r="C93" s="194" t="s">
-        <v>377</v>
-      </c>
-      <c r="D93" s="195" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" s="196" t="s">
-        <v>379</v>
-      </c>
-      <c r="F93" s="197"/>
-      <c r="G93" s="198"/>
+      <c r="F160" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G160" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H93" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}">
+  <autoFilter ref="B2:H114" xr:uid="{DC86F2B6-72F4-4A6D-B5EA-724F3BDA145D}">
     <filterColumn colId="4">
       <filters>
         <filter val="Siva"/>
@@ -4590,16 +5531,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="B76:B89"/>
     <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B34"/>
-    <mergeCell ref="B35:B49"/>
-    <mergeCell ref="B50:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B17:B40"/>
+    <mergeCell ref="B41:B56"/>
+    <mergeCell ref="B57:B75"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B95:B100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4637,14 +5578,14 @@
         <v>204</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="202" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4657,14 +5598,14 @@
         <v>211</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H3" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="181"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="7" t="s">
         <v>213</v>
       </c>
@@ -4675,14 +5616,14 @@
         <v>214</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H4" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="181"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
@@ -4693,14 +5634,14 @@
         <v>125</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H5" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="181"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="7" t="s">
         <v>228</v>
       </c>
@@ -4711,14 +5652,14 @@
         <v>125</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H6" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="181"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="7" t="s">
         <v>118</v>
       </c>
@@ -4729,14 +5670,14 @@
         <v>126</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="181"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="7" t="s">
         <v>119</v>
       </c>
@@ -4747,14 +5688,14 @@
         <v>127</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H8" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="181"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="7" t="s">
         <v>120</v>
       </c>
@@ -4765,7 +5706,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H9" s="20">
         <v>3</v>
@@ -4775,7 +5716,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="181"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="7" t="s">
         <v>121</v>
       </c>
@@ -4786,7 +5727,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L10">
         <f>250/8</f>
@@ -4794,7 +5735,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="181"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="7" t="s">
         <v>122</v>
       </c>
@@ -4805,14 +5746,14 @@
         <v>130</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="181"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="7" t="s">
         <v>123</v>
       </c>
@@ -4823,14 +5764,14 @@
         <v>131</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="182"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="7" t="s">
         <v>124</v>
       </c>
@@ -4843,7 +5784,7 @@
       <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="202" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -4861,7 +5802,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="181"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="7" t="s">
         <v>207</v>
       </c>
@@ -4877,7 +5818,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="181"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="7" t="s">
         <v>208</v>
       </c>
@@ -4893,7 +5834,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="181"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="7" t="s">
         <v>209</v>
       </c>
@@ -4909,7 +5850,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="181"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="7" t="s">
         <v>163</v>
       </c>
@@ -4925,7 +5866,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="181"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="7" t="s">
         <v>164</v>
       </c>
@@ -4941,7 +5882,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="181"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="7" t="s">
         <v>210</v>
       </c>
@@ -4955,7 +5896,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="181"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="7" t="s">
         <v>165</v>
       </c>
@@ -4969,7 +5910,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="181"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="7" t="s">
         <v>166</v>
       </c>
@@ -4983,7 +5924,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="181"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="7" t="s">
         <v>167</v>
       </c>
@@ -4994,7 +5935,7 @@
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="181"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="7" t="s">
         <v>168</v>
       </c>
@@ -5008,7 +5949,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="181"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="7" t="s">
         <v>169</v>
       </c>
@@ -5019,7 +5960,7 @@
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="181"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="7" t="s">
         <v>84</v>
       </c>
@@ -5033,7 +5974,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="181"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="7" t="s">
         <v>170</v>
       </c>
@@ -5047,7 +5988,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="181"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="7" t="s">
         <v>171</v>
       </c>
@@ -5061,7 +6002,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="181"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="7" t="s">
         <v>172</v>
       </c>
@@ -5075,7 +6016,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="182"/>
+      <c r="B30" s="204"/>
       <c r="C30" s="7" t="s">
         <v>173</v>
       </c>
@@ -5089,7 +6030,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="202" t="s">
         <v>200</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5105,7 +6046,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="181"/>
+      <c r="B32" s="203"/>
       <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
@@ -5119,7 +6060,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="181"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="7" t="s">
         <v>36</v>
       </c>
@@ -5133,7 +6074,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="181"/>
+      <c r="B34" s="203"/>
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
@@ -5147,7 +6088,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="181"/>
+      <c r="B35" s="203"/>
       <c r="C35" s="7" t="s">
         <v>38</v>
       </c>
@@ -5161,7 +6102,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="181"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
@@ -5175,7 +6116,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="181"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
@@ -5189,7 +6130,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="181"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
@@ -5203,7 +6144,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="181"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="7" t="s">
         <v>50</v>
       </c>
@@ -5220,7 +6161,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="181"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="7" t="s">
         <v>219</v>
       </c>
@@ -5234,7 +6175,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="181"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="7" t="s">
         <v>52</v>
       </c>
@@ -5248,7 +6189,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="181"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="7" t="s">
         <v>53</v>
       </c>
@@ -5259,7 +6200,7 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="181"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="7" t="s">
         <v>54</v>
       </c>
@@ -5276,7 +6217,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="182"/>
+      <c r="B44" s="204"/>
       <c r="C44" s="7" t="s">
         <v>55</v>
       </c>
@@ -5287,7 +6228,7 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="180" t="s">
+      <c r="B45" s="202" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -5303,7 +6244,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="181"/>
+      <c r="B46" s="203"/>
       <c r="C46" s="7" t="s">
         <v>51</v>
       </c>
@@ -5317,7 +6258,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="181"/>
+      <c r="B47" s="203"/>
       <c r="C47" s="7" t="s">
         <v>63</v>
       </c>
@@ -5331,7 +6272,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="181"/>
+      <c r="B48" s="203"/>
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
@@ -5345,7 +6286,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="181"/>
+      <c r="B49" s="203"/>
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
@@ -5359,7 +6300,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="181"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="7" t="s">
         <v>66</v>
       </c>
@@ -5373,7 +6314,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="181"/>
+      <c r="B51" s="203"/>
       <c r="C51" s="7" t="s">
         <v>67</v>
       </c>
@@ -5384,7 +6325,7 @@
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="181"/>
+      <c r="B52" s="203"/>
       <c r="C52" s="7" t="s">
         <v>68</v>
       </c>
@@ -5395,7 +6336,7 @@
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="181"/>
+      <c r="B53" s="203"/>
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
@@ -5406,7 +6347,7 @@
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="181"/>
+      <c r="B54" s="203"/>
       <c r="C54" s="7" t="s">
         <v>70</v>
       </c>
@@ -5421,7 +6362,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="181"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="7" t="s">
         <v>81</v>
       </c>
@@ -5435,7 +6376,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="181"/>
+      <c r="B56" s="203"/>
       <c r="C56" s="7" t="s">
         <v>82</v>
       </c>
@@ -5449,7 +6390,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="181"/>
+      <c r="B57" s="203"/>
       <c r="C57" s="7" t="s">
         <v>83</v>
       </c>
@@ -5466,7 +6407,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="181"/>
+      <c r="B58" s="203"/>
       <c r="C58" s="7" t="s">
         <v>85</v>
       </c>
@@ -5480,7 +6421,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="181"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="7" t="s">
         <v>86</v>
       </c>
@@ -5494,7 +6435,7 @@
       </c>
     </row>
     <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="182"/>
+      <c r="B60" s="204"/>
       <c r="C60" s="7" t="s">
         <v>87</v>
       </c>
@@ -5508,7 +6449,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="180" t="s">
+      <c r="B61" s="202" t="s">
         <v>202</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -5525,7 +6466,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="181"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="8" t="s">
         <v>96</v>
       </c>
@@ -5540,7 +6481,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="181"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="8" t="s">
         <v>97</v>
       </c>
@@ -5555,7 +6496,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="181"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="8" t="s">
         <v>98</v>
       </c>
@@ -5570,7 +6511,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="181"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="8" t="s">
         <v>99</v>
       </c>
@@ -5585,7 +6526,7 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="181"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="8" t="s">
         <v>100</v>
       </c>
@@ -5600,7 +6541,7 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="181"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="8" t="s">
         <v>101</v>
       </c>
@@ -5615,7 +6556,7 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="181"/>
+      <c r="B68" s="203"/>
       <c r="C68" s="8" t="s">
         <v>102</v>
       </c>
@@ -5630,7 +6571,7 @@
       </c>
     </row>
     <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="181"/>
+      <c r="B69" s="203"/>
       <c r="C69" s="8" t="s">
         <v>103</v>
       </c>
@@ -5645,7 +6586,7 @@
       </c>
     </row>
     <row r="70" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="181"/>
+      <c r="B70" s="203"/>
       <c r="C70" s="8" t="s">
         <v>104</v>
       </c>
@@ -5660,7 +6601,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="181"/>
+      <c r="B71" s="203"/>
       <c r="C71" s="8" t="s">
         <v>105</v>
       </c>
@@ -5675,7 +6616,7 @@
       </c>
     </row>
     <row r="72" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="181"/>
+      <c r="B72" s="203"/>
       <c r="C72" s="7" t="s">
         <v>191</v>
       </c>
@@ -5689,7 +6630,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="181"/>
+      <c r="B73" s="203"/>
       <c r="C73" s="7" t="s">
         <v>85</v>
       </c>
@@ -5700,7 +6641,7 @@
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="181"/>
+      <c r="B74" s="203"/>
       <c r="C74" s="7" t="s">
         <v>87</v>
       </c>
@@ -5711,7 +6652,7 @@
       <c r="F74" s="29"/>
     </row>
     <row r="75" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="181"/>
+      <c r="B75" s="203"/>
       <c r="C75" s="7" t="s">
         <v>192</v>
       </c>
@@ -5722,7 +6663,7 @@
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B76" s="182"/>
+      <c r="B76" s="204"/>
       <c r="C76" s="7" t="s">
         <v>194</v>
       </c>
@@ -5733,7 +6674,7 @@
       <c r="F76" s="29"/>
     </row>
     <row r="77" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="180" t="s">
+      <c r="B77" s="202" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -5749,7 +6690,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="181"/>
+      <c r="B78" s="203"/>
       <c r="C78" s="7" t="s">
         <v>134</v>
       </c>
@@ -5763,7 +6704,7 @@
       </c>
     </row>
     <row r="79" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="181"/>
+      <c r="B79" s="203"/>
       <c r="C79" s="7" t="s">
         <v>135</v>
       </c>
@@ -5777,7 +6718,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B80" s="181"/>
+      <c r="B80" s="203"/>
       <c r="C80" s="7" t="s">
         <v>136</v>
       </c>
@@ -5791,7 +6732,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B81" s="181"/>
+      <c r="B81" s="203"/>
       <c r="C81" s="7" t="s">
         <v>137</v>
       </c>
@@ -5805,7 +6746,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B82" s="181"/>
+      <c r="B82" s="203"/>
       <c r="C82" s="7" t="s">
         <v>138</v>
       </c>
@@ -5819,7 +6760,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B83" s="181"/>
+      <c r="B83" s="203"/>
       <c r="C83" s="7" t="s">
         <v>139</v>
       </c>
@@ -5833,7 +6774,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B84" s="181"/>
+      <c r="B84" s="203"/>
       <c r="C84" s="7" t="s">
         <v>140</v>
       </c>
@@ -5847,7 +6788,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B85" s="181"/>
+      <c r="B85" s="203"/>
       <c r="C85" s="7" t="s">
         <v>141</v>
       </c>
@@ -5861,7 +6802,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B86" s="181"/>
+      <c r="B86" s="203"/>
       <c r="C86" s="7" t="s">
         <v>142</v>
       </c>
@@ -5875,7 +6816,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="181"/>
+      <c r="B87" s="203"/>
       <c r="C87" s="7" t="s">
         <v>143</v>
       </c>
@@ -5886,7 +6827,7 @@
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B88" s="181"/>
+      <c r="B88" s="203"/>
       <c r="C88" s="7" t="s">
         <v>144</v>
       </c>
@@ -5900,7 +6841,7 @@
       </c>
     </row>
     <row r="89" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="181"/>
+      <c r="B89" s="203"/>
       <c r="C89" s="7" t="s">
         <v>84</v>
       </c>
@@ -5911,7 +6852,7 @@
       <c r="F89" s="29"/>
     </row>
     <row r="90" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B90" s="181"/>
+      <c r="B90" s="203"/>
       <c r="C90" s="7" t="s">
         <v>145</v>
       </c>
@@ -5922,7 +6863,7 @@
       <c r="F90" s="29"/>
     </row>
     <row r="91" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="183"/>
+      <c r="B91" s="205"/>
       <c r="C91" s="13" t="s">
         <v>146</v>
       </c>
@@ -6140,7 +7081,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="202" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -6151,7 +7092,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="181"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="7" t="s">
         <v>118</v>
       </c>
@@ -6160,7 +7101,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="181"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="7" t="s">
         <v>119</v>
       </c>
@@ -6169,7 +7110,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="181"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="7" t="s">
         <v>120</v>
       </c>
@@ -6178,7 +7119,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="181"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="7" t="s">
         <v>121</v>
       </c>
@@ -6187,7 +7128,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="181"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="7" t="s">
         <v>122</v>
       </c>
@@ -6196,7 +7137,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="181"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="7" t="s">
         <v>123</v>
       </c>
@@ -6208,7 +7149,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="182"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="7" t="s">
         <v>124</v>
       </c>
@@ -6217,7 +7158,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="202" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -6228,7 +7169,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="181"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="7" t="s">
         <v>207</v>
       </c>
@@ -6237,7 +7178,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="181"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="7" t="s">
         <v>208</v>
       </c>
@@ -6246,7 +7187,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="181"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="7" t="s">
         <v>209</v>
       </c>
@@ -6255,7 +7196,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="181"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="7" t="s">
         <v>163</v>
       </c>
@@ -6264,7 +7205,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="181"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="7" t="s">
         <v>164</v>
       </c>
@@ -6273,7 +7214,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="181"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="7" t="s">
         <v>210</v>
       </c>
@@ -6282,7 +7223,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="181"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="7" t="s">
         <v>165</v>
       </c>
@@ -6291,7 +7232,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="181"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="7" t="s">
         <v>166</v>
       </c>
@@ -6300,7 +7241,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="181"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="7" t="s">
         <v>167</v>
       </c>
@@ -6309,7 +7250,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="181"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="7" t="s">
         <v>168</v>
       </c>
@@ -6318,7 +7259,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="181"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="7" t="s">
         <v>169</v>
       </c>
@@ -6327,7 +7268,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="181"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="7" t="s">
         <v>84</v>
       </c>
@@ -6336,7 +7277,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="181"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="7" t="s">
         <v>170</v>
       </c>
@@ -6345,7 +7286,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="181"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="7" t="s">
         <v>171</v>
       </c>
@@ -6354,7 +7295,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="181"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="7" t="s">
         <v>172</v>
       </c>
@@ -6363,7 +7304,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="182"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="7" t="s">
         <v>173</v>
       </c>
@@ -6372,7 +7313,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="202" t="s">
         <v>200</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -6383,7 +7324,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="181"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="7" t="s">
         <v>35</v>
       </c>
@@ -6392,7 +7333,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="181"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
@@ -6401,7 +7342,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="181"/>
+      <c r="B31" s="203"/>
       <c r="C31" s="7" t="s">
         <v>37</v>
       </c>
@@ -6410,7 +7351,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="181"/>
+      <c r="B32" s="203"/>
       <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
@@ -6419,7 +7360,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="181"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
@@ -6428,7 +7369,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="181"/>
+      <c r="B34" s="203"/>
       <c r="C34" s="7" t="s">
         <v>40</v>
       </c>
@@ -6437,7 +7378,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="181"/>
+      <c r="B35" s="203"/>
       <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
@@ -6446,7 +7387,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="181"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="7" t="s">
         <v>50</v>
       </c>
@@ -6455,7 +7396,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="181"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
@@ -6464,7 +7405,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="181"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="7" t="s">
         <v>52</v>
       </c>
@@ -6473,7 +7414,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="181"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="7" t="s">
         <v>53</v>
       </c>
@@ -6482,7 +7423,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="181"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="7" t="s">
         <v>54</v>
       </c>
@@ -6491,7 +7432,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="182"/>
+      <c r="B41" s="204"/>
       <c r="C41" s="7" t="s">
         <v>55</v>
       </c>
@@ -6500,7 +7441,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="202" t="s">
         <v>201</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -6511,7 +7452,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="181"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="7" t="s">
         <v>51</v>
       </c>
@@ -6520,7 +7461,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="181"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="7" t="s">
         <v>63</v>
       </c>
@@ -6529,7 +7470,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="181"/>
+      <c r="B45" s="203"/>
       <c r="C45" s="7" t="s">
         <v>64</v>
       </c>
@@ -6538,7 +7479,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="181"/>
+      <c r="B46" s="203"/>
       <c r="C46" s="7" t="s">
         <v>65</v>
       </c>
@@ -6547,7 +7488,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="181"/>
+      <c r="B47" s="203"/>
       <c r="C47" s="7" t="s">
         <v>66</v>
       </c>
@@ -6556,7 +7497,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="181"/>
+      <c r="B48" s="203"/>
       <c r="C48" s="7" t="s">
         <v>67</v>
       </c>
@@ -6565,7 +7506,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="181"/>
+      <c r="B49" s="203"/>
       <c r="C49" s="7" t="s">
         <v>68</v>
       </c>
@@ -6574,7 +7515,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="181"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="7" t="s">
         <v>69</v>
       </c>
@@ -6583,7 +7524,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="181"/>
+      <c r="B51" s="203"/>
       <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
@@ -6592,7 +7533,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="181"/>
+      <c r="B52" s="203"/>
       <c r="C52" s="7" t="s">
         <v>81</v>
       </c>
@@ -6601,7 +7542,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="181"/>
+      <c r="B53" s="203"/>
       <c r="C53" s="7" t="s">
         <v>82</v>
       </c>
@@ -6610,7 +7551,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="181"/>
+      <c r="B54" s="203"/>
       <c r="C54" s="7" t="s">
         <v>83</v>
       </c>
@@ -6619,7 +7560,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="181"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="7" t="s">
         <v>84</v>
       </c>
@@ -6628,7 +7569,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="181"/>
+      <c r="B56" s="203"/>
       <c r="C56" s="7" t="s">
         <v>85</v>
       </c>
@@ -6637,7 +7578,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="181"/>
+      <c r="B57" s="203"/>
       <c r="C57" s="7" t="s">
         <v>86</v>
       </c>
@@ -6646,7 +7587,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="182"/>
+      <c r="B58" s="204"/>
       <c r="C58" s="7" t="s">
         <v>87</v>
       </c>
@@ -6655,7 +7596,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="180" t="s">
+      <c r="B59" s="202" t="s">
         <v>202</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -6666,7 +7607,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="181"/>
+      <c r="B60" s="203"/>
       <c r="C60" s="8" t="s">
         <v>96</v>
       </c>
@@ -6675,7 +7616,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="181"/>
+      <c r="B61" s="203"/>
       <c r="C61" s="8" t="s">
         <v>97</v>
       </c>
@@ -6684,7 +7625,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="181"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="8" t="s">
         <v>98</v>
       </c>
@@ -6693,7 +7634,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="181"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="8" t="s">
         <v>99</v>
       </c>
@@ -6702,7 +7643,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="181"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="8" t="s">
         <v>100</v>
       </c>
@@ -6711,7 +7652,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B65" s="181"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="8" t="s">
         <v>101</v>
       </c>
@@ -6720,7 +7661,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="181"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="8" t="s">
         <v>102</v>
       </c>
@@ -6729,7 +7670,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="181"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="8" t="s">
         <v>103</v>
       </c>
@@ -6738,7 +7679,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="181"/>
+      <c r="B68" s="203"/>
       <c r="C68" s="8" t="s">
         <v>104</v>
       </c>
@@ -6747,7 +7688,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="181"/>
+      <c r="B69" s="203"/>
       <c r="C69" s="8" t="s">
         <v>105</v>
       </c>
@@ -6756,7 +7697,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="181"/>
+      <c r="B70" s="203"/>
       <c r="C70" s="7" t="s">
         <v>191</v>
       </c>
@@ -6765,7 +7706,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="181"/>
+      <c r="B71" s="203"/>
       <c r="C71" s="7" t="s">
         <v>85</v>
       </c>
@@ -6774,7 +7715,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" s="181"/>
+      <c r="B72" s="203"/>
       <c r="C72" s="7" t="s">
         <v>87</v>
       </c>
@@ -6783,7 +7724,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B73" s="181"/>
+      <c r="B73" s="203"/>
       <c r="C73" s="7" t="s">
         <v>192</v>
       </c>
@@ -6792,7 +7733,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="181"/>
+      <c r="B74" s="203"/>
       <c r="C74" s="7" t="s">
         <v>193</v>
       </c>
@@ -6801,7 +7742,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="182"/>
+      <c r="B75" s="204"/>
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
